--- a/detectors/column/dataset/dataset.xlsx
+++ b/detectors/column/dataset/dataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kuliah\KULIAH\SKRIPSI\kolom_detection\detectors\column\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FFD2B02-4B7B-49A1-AF20-F002892FDD4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D1778B8-F78B-4D06-89D5-5ACDB0AAA0A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{051CEAFC-8F45-4008-BA77-57EAE0B1F215}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="366">
   <si>
     <t>no</t>
   </si>
@@ -511,19 +511,1007 @@
   </si>
   <si>
     <t>mk.nama_matkul, k.hari, k.jam</t>
+  </si>
+  <si>
+    <t>Tampilkan daftar seluruh pegawai</t>
+  </si>
+  <si>
+    <t>Tampilkan pegawai yang bekerja di departemen IT</t>
+  </si>
+  <si>
+    <t>p.id_pegawai, p.nama, p.tanggal_lahir, p.jenis_kelamin, p.alamat, p.email, p.no_telepon, p.id_jabatan, p.id_departemen</t>
+  </si>
+  <si>
+    <t>Berapa banyak pegawai di setiap departemen?</t>
+  </si>
+  <si>
+    <t>d.nama_departemen</t>
+  </si>
+  <si>
+    <t>Tampilkan 3 jabatan dengan gaji pokok tertinggi</t>
+  </si>
+  <si>
+    <t>nama_jabatan, gaji_pokok</t>
+  </si>
+  <si>
+    <t>Tampilkan pegawai yang sedang cuti pada bulan ini</t>
+  </si>
+  <si>
+    <t>p.nama, c.tanggal_mulai, c.tanggal_selesai</t>
+  </si>
+  <si>
+    <t>Berapa rata-rata gaji pokok per jabatan?</t>
+  </si>
+  <si>
+    <t>nama_jabatan</t>
+  </si>
+  <si>
+    <t>Tampilkan rekap absensi Budi Santoso bulan ini</t>
+  </si>
+  <si>
+    <t>tanggal, jam_masuk, jam_pulang, status_kehadiran</t>
+  </si>
+  <si>
+    <t>Tampilkan pegawai yang belum pernah mengambil cuti</t>
+  </si>
+  <si>
+    <t>Tampilkan pelatihan yang pernah diikuti oleh Ani Wijaya</t>
+  </si>
+  <si>
+    <t>pl.nama_pelatihan, pl.tanggal, pp.nilai_sertifikat</t>
+  </si>
+  <si>
+    <t>Berapa total gaji yang dibayarkan bulan Oktober 2023?</t>
+  </si>
+  <si>
+    <t>(hanya menggunakan SUM(total_gaji) - tidak ada kolom non-agregasi)</t>
+  </si>
+  <si>
+    <t>Tampilkan 5 pegawai dengan persentase kehadiran terendah bulan ini</t>
+  </si>
+  <si>
+    <t>p.nama</t>
+  </si>
+  <si>
+    <t>Tampilkan pelatihan yang akan datang dalam 30 hari ke depan</t>
+  </si>
+  <si>
+    <t>nama_pelatihan, tanggal, lokasi</t>
+  </si>
+  <si>
+    <t>Tampilkan pegawai dengan gaji pokok di atas rata-rata</t>
+  </si>
+  <si>
+    <t>p.nama, j.nama_jabatan, j.gaji_pokok</t>
+  </si>
+  <si>
+    <t>Tampilkan permohonan cuti yang belum disetujui</t>
+  </si>
+  <si>
+    <t>p.nama, c.id_cuti, c.tanggal_mulai, c.tanggal_selesai, c.jenis_cuti, c.status</t>
+  </si>
+  <si>
+    <t>Tampilkan rekap persentase kehadiran per departemen bulan ini</t>
+  </si>
+  <si>
+    <t>kepegawaian_1.json</t>
+  </si>
+  <si>
+    <t>Siapa saja nama lengkap pegawai yang bekerja di departemen 'Keuangan'?</t>
+  </si>
+  <si>
+    <t>nama_lengkap</t>
+  </si>
+  <si>
+    <t>Tampilkan semua informasi pegawai dengan ID 'PGW005'.</t>
+  </si>
+  <si>
+    <t>Jabatan apa saja yang ada di perusahaan?</t>
+  </si>
+  <si>
+    <t>Pegawai mana saja yang mulai bekerja setelah tanggal 1 Januari 2023?</t>
+  </si>
+  <si>
+    <t>Proyek apa saja yang sedang berjalan saat ini (tanggal selesai masih kosong)?</t>
+  </si>
+  <si>
+    <t>nama_proyek</t>
+  </si>
+  <si>
+    <t>Siapa saja pegawai yang terlibat dalam proyek 'Pengembangan Aplikasi Mobile'?</t>
+  </si>
+  <si>
+    <t>p.nama_lengkap</t>
+  </si>
+  <si>
+    <t>Tampilkan semua catatan absensi untuk pegawai dengan nama 'Ahmad Yani' pada tanggal '2024-05-10'.</t>
+  </si>
+  <si>
+    <t>a.*</t>
+  </si>
+  <si>
+    <t>Berapa gaji pokok untuk jabatan 'Manajer Proyek'?</t>
+  </si>
+  <si>
+    <t>gaji_pokok</t>
+  </si>
+  <si>
+    <t>Departemen mana saja yang berlokasi di 'Jakarta'?</t>
+  </si>
+  <si>
+    <t>nama_departemen</t>
+  </si>
+  <si>
+    <t>Siapa saja pegawai yang memiliki email dengan domain '@example.com'?</t>
+  </si>
+  <si>
+    <t>Tampilkan ID pegawai dan nama proyek tempat mereka ditugaskan.</t>
+  </si>
+  <si>
+    <t>Catatan absensi pada tanggal berapa saja yang dimiliki oleh pegawai dengan ID 'PGW010'?</t>
+  </si>
+  <si>
+    <t>tanggal</t>
+  </si>
+  <si>
+    <t>Tampilkan nama jabatan dan gaji pokoknya yang lebih besar dari 5.000.000.</t>
+  </si>
+  <si>
+    <t>Siapa nama pegawai yang bekerja di departemen 'Pemasaran' dan memiliki jabatan 'Staf Pemasaran'?</t>
+  </si>
+  <si>
+    <t>Urutkan semua pegawai berdasarkan tanggal mulai kerja dari yang terbaru.</t>
+  </si>
+  <si>
+    <t>p.id_pegawai, pr.nama_proyek</t>
+  </si>
+  <si>
+    <t>nama_jabatan, gaji_pokok</t>
+  </si>
+  <si>
+    <t>nama_lengkap, tanggal_mulai_kerja</t>
+  </si>
+  <si>
+    <t>kepegawaian_2.json</t>
+  </si>
+  <si>
+    <t>Tampilkan semua akun yang bertipe 'Aktiva'.</t>
+  </si>
+  <si>
+    <t>Cari transaksi yang dilakukan pada tanggal 2024-12-31.</t>
+  </si>
+  <si>
+    <t>Tampilkan semua detail transaksi untuk transaksi dengan ID 10.</t>
+  </si>
+  <si>
+    <t>Tampilkan nama dan tipe akun dari akun yang saldo awalnya lebih dari 1 juta.</t>
+  </si>
+  <si>
+    <t>nama_akun, tipe_akun</t>
+  </si>
+  <si>
+    <t>Cari transaksi yang dibuat oleh user dengan ID 3.</t>
+  </si>
+  <si>
+    <t>Tampilkan semua user yang memiliki peran sebagai 'Staff'.</t>
+  </si>
+  <si>
+    <t>Hitung total nilai transaksi (debit dan kredit) untuk akun dengan ID 5.</t>
+  </si>
+  <si>
+    <t>debit, kredit</t>
+  </si>
+  <si>
+    <t>Tampilkan transaksi yang memiliki total lebih dari 10 juta.</t>
+  </si>
+  <si>
+    <t>Tampilkan semua akun yang memiliki kode akun diawali dengan '1'.</t>
+  </si>
+  <si>
+    <t>Tampilkan jumlah transaksi yang dilakukan oleh setiap user.</t>
+  </si>
+  <si>
+    <t>id_user</t>
+  </si>
+  <si>
+    <t>Tampilkan nama akun dan total debit untuk setiap akun.</t>
+  </si>
+  <si>
+    <t>nama_akun, debit</t>
+  </si>
+  <si>
+    <t>Cari akun dengan saldo awal antara 5 juta dan 20 juta.</t>
+  </si>
+  <si>
+    <t>Tampilkan 5 transaksi terbaru.</t>
+  </si>
+  <si>
+    <t>Tampilkan semua transaksi beserta nama user yang membuatnya.</t>
+  </si>
+  <si>
+    <t>id_transaksi, tanggal, deskripsi, total, id_user, nama_user</t>
+  </si>
+  <si>
+    <t>Tampilkan detail transaksi beserta nama akun dan jenis akunnya.</t>
+  </si>
+  <si>
+    <t>id_detail, id_transaksi, id_akun, debit, kredit, nama_akun, tipe_akun</t>
+  </si>
+  <si>
+    <t>akuntansi_1.json</t>
+  </si>
+  <si>
+    <t>Daftar semua akun buku besar</t>
+  </si>
+  <si>
+    <t>id_akun, kode_akun, nama_akun, jenis_akun, saldo</t>
+  </si>
+  <si>
+    <t>Riwayat semua transaksi keuangan</t>
+  </si>
+  <si>
+    <t>id_transaksi, tanggal, jumlah, deskripsi, id_pelanggan, id_pemasok</t>
+  </si>
+  <si>
+    <t>Seluruh entri jurnal akuntansi</t>
+  </si>
+  <si>
+    <t>id_jurnal, id_transaksi, id_akun, debit, kredit, tanggal_posting</t>
+  </si>
+  <si>
+    <t>Data master pelanggan</t>
+  </si>
+  <si>
+    <t>id_pelanggan, nama, alamat, telepon</t>
+  </si>
+  <si>
+    <t>Data master pemasok</t>
+  </si>
+  <si>
+    <t>id_pemasok, nama, alamat, telepon</t>
+  </si>
+  <si>
+    <t>Semua faktur yang tercatat</t>
+  </si>
+  <si>
+    <t>id_faktur, id_transaksi, tanggal_faktur, tanggal_jatuh_tempo, status</t>
+  </si>
+  <si>
+    <t>Laporan jurnal umum (transaksi + jurnal)</t>
+  </si>
+  <si>
+    <t>t.tanggal, a.kode_akun, a.nama_akun, j.debit, j.kredit</t>
+  </si>
+  <si>
+    <t>Buku besar per akun tertentu</t>
+  </si>
+  <si>
+    <t>a.kode_akun, a.nama_akun, j.tanggal_posting, j.debit, j.kredit</t>
+  </si>
+  <si>
+    <t>Transaksi penjualan ke pelanggan tertentu</t>
+  </si>
+  <si>
+    <t>t.id_transaksi, t.tanggal, t.jumlah, p.nama</t>
+  </si>
+  <si>
+    <t>Transaksi pembelian dari pemasok tertentu</t>
+  </si>
+  <si>
+    <t>t.id_transaksi, t.tanggal, t.jumlah, s.nama</t>
+  </si>
+  <si>
+    <t>Daftar faktur yang belum dibayar</t>
+  </si>
+  <si>
+    <t>f.id_faktur, f.tanggal_faktur, f.tanggal_jatuh_tempo, t.jumlah</t>
+  </si>
+  <si>
+    <t>Daftar saldo akun aset</t>
+  </si>
+  <si>
+    <t>kode_akun, nama_akun, saldo</t>
+  </si>
+  <si>
+    <t>Perbandingan pendapatan vs beban</t>
+  </si>
+  <si>
+    <t>a.jenis_akun, j.debit, j.kredit</t>
+  </si>
+  <si>
+    <t>Riwayat transaksi per pelanggan</t>
+  </si>
+  <si>
+    <t>p.nama, t.id_transaksi, t.jumlah</t>
+  </si>
+  <si>
+    <t>Riwayat transaksi per pemasok</t>
+  </si>
+  <si>
+    <t>s.nama, t.id_transaksi, t.jumlah</t>
+  </si>
+  <si>
+    <t>akuntansi_2.json</t>
+  </si>
+  <si>
+    <t>Tampilkan semua data pelanggan.</t>
+  </si>
+  <si>
+    <t>Tampilkan nama dan email dari semua pelanggan.</t>
+  </si>
+  <si>
+    <t>Tampilkan semua pesanan yang dibuat oleh pelanggan dengan ID 1.</t>
+  </si>
+  <si>
+    <t>Tampilkan produk yang stoknya kurang dari 10.</t>
+  </si>
+  <si>
+    <t>Tampilkan nama produk dan harganya.</t>
+  </si>
+  <si>
+    <t>nama, harga</t>
+  </si>
+  <si>
+    <t>Tampilkan detail pesanan dengan jumlah lebih dari 2.</t>
+  </si>
+  <si>
+    <t>Tampilkan total pembayaran dari pesanan dengan ID 5.</t>
+  </si>
+  <si>
+    <t>jumlah_bayar</t>
+  </si>
+  <si>
+    <t>Tampilkan semua pesanan yang statusnya 'selesai'.</t>
+  </si>
+  <si>
+    <t>Tampilkan semua pelanggan yang pernah melakukan pesanan.</t>
+  </si>
+  <si>
+    <t>Tampilkan produk yang pernah dipesan dalam detail pesanan.</t>
+  </si>
+  <si>
+    <t>Tampilkan jumlah total pesanan per pelanggan.</t>
+  </si>
+  <si>
+    <t>id_pelanggan</t>
+  </si>
+  <si>
+    <t>Tampilkan total pembayaran yang diterima dari semua pesanan.</t>
+  </si>
+  <si>
+    <t>Tampilkan 5 produk dengan stok paling sedikit.</t>
+  </si>
+  <si>
+    <t>Tampilkan pesanan yang dibuat pada tanggal 2025-05-01.</t>
+  </si>
+  <si>
+    <t>Tampilkan total item yang dipesan dalam satu pesanan dengan ID 3.</t>
+  </si>
+  <si>
+    <t>jumlah</t>
+  </si>
+  <si>
+    <t>pemesanan_1.json</t>
+  </si>
+  <si>
+    <t>Tampilkan daftar semua pelanggan</t>
+  </si>
+  <si>
+    <t>Berapa total pesanan yang dibuat oleh setiap pelanggan?</t>
+  </si>
+  <si>
+    <t>Tampilkan pesanan dengan status pembayaran 'belum lunas'</t>
+  </si>
+  <si>
+    <t>Produk apa yang harganya paling tinggi?</t>
+  </si>
+  <si>
+    <t>Berapa total uang yang dihasilkan dari semua pesanan?</t>
+  </si>
+  <si>
+    <t>Tampilkan item-item yang ada di pesanan dengan ID 'order123'</t>
+  </si>
+  <si>
+    <t>Siapa pelanggan yang paling sering melakukan pemesanan?</t>
+  </si>
+  <si>
+    <t>Produk apa yang paling banyak dibeli?</t>
+  </si>
+  <si>
+    <t>Kurangi stok produk dengan ID 'prod100' sebanyak 2 unit</t>
+  </si>
+  <si>
+    <t>Tampilkan pesanan antara tanggal 1 Oktober 2023 sampai 31 Oktober 2023</t>
+  </si>
+  <si>
+    <t>Berapa rata-rata total harga pesanan?</t>
+  </si>
+  <si>
+    <t>Cari pelanggan yang namanya mengandung kata 'budi'</t>
+  </si>
+  <si>
+    <t>Hapus pesanan dengan status 'dibatalkan'</t>
+  </si>
+  <si>
+    <t>Metode pembayaran apa saja yang pernah digunakan?</t>
+  </si>
+  <si>
+    <t>p.nama (dari pelanggan), ps.id_pesanan (dari pesanan)</t>
+  </si>
+  <si>
+    <t>ps.id_pesanan (dari pesanan), p.nama (dari pelanggan), pb.status_pembayaran (dari pembayaran)</t>
+  </si>
+  <si>
+    <t>* (semua kolom dari produk)</t>
+  </si>
+  <si>
+    <t>total_harga (dari pesanan)</t>
+  </si>
+  <si>
+    <t>pr.nama_produk (dari produk), ip.jumlah, ip.harga_satuan (dari item_pesanan)</t>
+  </si>
+  <si>
+    <t>pr.nama_produk (dari produk), ip.jumlah (dari item_pesanan)</t>
+  </si>
+  <si>
+    <t>(Tidak ada SELECT, query UPDATE)</t>
+  </si>
+  <si>
+    <t>* (semua kolom dari pesanan: id_pesanan, id_pelanggan, tanggal_pemesanan, status, total_harga)</t>
+  </si>
+  <si>
+    <t>* (semua kolom dari pelanggan)</t>
+  </si>
+  <si>
+    <t>(Tidak ada SELECT, query DELETE)</t>
+  </si>
+  <si>
+    <t>metode_pembayaran (dari pembayaran</t>
+  </si>
+  <si>
+    <t>* </t>
+  </si>
+  <si>
+    <t>pemesanan_2.json</t>
+  </si>
+  <si>
+    <t>Tampilkan semua data pelanggan</t>
+  </si>
+  <si>
+    <r>
+      <t>id_pelanggan</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>nama</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>alamat</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>no_telepon</t>
+    </r>
+  </si>
+  <si>
+    <t>Tampilkan nama dan harga semua produk</t>
+  </si>
+  <si>
+    <r>
+      <t>nama_produk</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>harga</t>
+    </r>
+  </si>
+  <si>
+    <t>Cari produk yang memiliki stok lebih dari 50</t>
+  </si>
+  <si>
+    <r>
+      <t>id_produk</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>nama_produk</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>harga</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>stok</t>
+    </r>
+  </si>
+  <si>
+    <t>Tampilkan semua transaksi yang dilakukan oleh pelanggan dengan ID 1</t>
+  </si>
+  <si>
+    <r>
+      <t>id_transaksi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>tanggal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>id_pelanggan</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>id_karyawan</t>
+    </r>
+  </si>
+  <si>
+    <t>Tampilkan total penjualan berdasarkan transaksi</t>
+  </si>
+  <si>
+    <r>
+      <t>id_transaksi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>subtotal</t>
+    </r>
+  </si>
+  <si>
+    <t>Tampilkan produk yang dijual dalam transaksi dengan ID 101</t>
+  </si>
+  <si>
+    <r>
+      <t>nama_produk</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>jumlah</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>subtotal</t>
+    </r>
+  </si>
+  <si>
+    <t>Tampilkan nama karyawan yang menangani transaksi dengan ID 50</t>
+  </si>
+  <si>
+    <t>Hitung total produk yang tersedia di stok</t>
+  </si>
+  <si>
+    <t>Cari pelanggan dengan nama "Budi"</t>
+  </si>
+  <si>
+    <t>Tampilkan transaksi yang dilakukan setelah tanggal 2025-01-01</t>
+  </si>
+  <si>
+    <t>Tampilkan jumlah produk yang terjual untuk setiap produk</t>
+  </si>
+  <si>
+    <r>
+      <t>nama_produk</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>jumlah</t>
+    </r>
+  </si>
+  <si>
+    <t>Cari transaksi yang memiliki lebih dari 3 produk</t>
+  </si>
+  <si>
+    <r>
+      <t>id_transaksi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>id_produk</t>
+    </r>
+  </si>
+  <si>
+    <t>Tampilkan nama produk yang harga lebih dari 50000</t>
+  </si>
+  <si>
+    <t>Tampilkan pelanggan yang melakukan transaksi lebih dari 3 kali</t>
+  </si>
+  <si>
+    <r>
+      <t>nama</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>id_pelanggan</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>id_transaksi</t>
+    </r>
+  </si>
+  <si>
+    <t>Tampilkan karyawan yang tidak menangani transaksi apapun</t>
+  </si>
+  <si>
+    <r>
+      <t>nama</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>id_karyawan</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>id_transaksi</t>
+    </r>
+  </si>
+  <si>
+    <t>penjualan_1.json</t>
+  </si>
+  <si>
+    <t>Tampilkan daftar semua pelanggan.</t>
+  </si>
+  <si>
+    <t>Cari produk dengan harga lebih dari 100000.</t>
+  </si>
+  <si>
+    <t>Tampilkan semua pesanan dari pelanggan yang memiliki ID 'P001'.</t>
+  </si>
+  <si>
+    <t>Hitung jumlah pesanan setiap pelanggan.</t>
+  </si>
+  <si>
+    <t>Tampilkan produk yang stoknya di bawah 10.</t>
+  </si>
+  <si>
+    <t>Tampilkan detail pesanan termasuk nama produknya.</t>
+  </si>
+  <si>
+    <t>Hitung total pendapatan dari semua pesanan yang selesai.</t>
+  </si>
+  <si>
+    <t>total_harga</t>
+  </si>
+  <si>
+    <t>Cari pelanggan yang tidak pernah membuat pesanan.</t>
+  </si>
+  <si>
+    <t>Tampilkan 5 produk yang paling sering dibeli.</t>
+  </si>
+  <si>
+    <t>Tampilkan pesanan yang belum memiliki pembayaran.</t>
+  </si>
+  <si>
+    <t>Hitung rata-rata harga produk untuk setiap kategori.</t>
+  </si>
+  <si>
+    <t>Tampilkan semua pesanan bersama nama pelanggannya.</t>
+  </si>
+  <si>
+    <t>Cari produk yang namanya mengandung kata 'laptop'.</t>
+  </si>
+  <si>
+    <t>Tampilkan semua pembayaran dengan metode 'transfer bank'.</t>
+  </si>
+  <si>
+    <t>Hitung berapa banyak produk yang ada di setiap kategori.</t>
+  </si>
+  <si>
+    <t>nama_kategori</t>
+  </si>
+  <si>
+    <t>* (semua kolom dari pelanggan: id_pelanggan, nama, alamat, telepon, email)</t>
+  </si>
+  <si>
+    <t>* (semua kolom dari produk: id_produk, nama_produk, harga, stok, id_kategori)</t>
+  </si>
+  <si>
+    <t>* (semua kolom dari pesanan: id_pesanan, id_pelanggan, tanggal_pesanan, total_harga, status)</t>
+  </si>
+  <si>
+    <t>id_detail_pesanan, id_pesanan, id_produk, jumlah, subtotal, nama_produk</t>
+  </si>
+  <si>
+    <t>id_produk, nama_produk, jumlah</t>
+  </si>
+  <si>
+    <t>* (semua kolom dari pesanan)</t>
+  </si>
+  <si>
+    <t>nama_kategori, harga</t>
+  </si>
+  <si>
+    <t>id_pesanan, id_pelanggan, tanggal_pesanan, total_harga, status, nama</t>
+  </si>
+  <si>
+    <t>* (semua kolom dari pembayaran: id_pembayaran, id_pesanan, metode_pembayaran, jumlah_bayar, tanggal_bayar)</t>
+  </si>
+  <si>
+    <t>penjualan_2.json</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
     </font>
   </fonts>
   <fills count="2">
@@ -534,7 +1522,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -611,16 +1599,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -643,7 +1652,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -960,2460 +1986,3198 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{086A8FFE-D1A1-4733-8C5A-A48CAD4842F7}">
   <dimension ref="A1:E211"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H82" sqref="H82"/>
+    <sheetView tabSelected="1" zoomScale="81" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A183" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E174" sqref="E174"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="5.5546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="80.88671875" customWidth="1"/>
-    <col min="3" max="3" width="109" customWidth="1"/>
+    <col min="2" max="2" width="88.77734375" customWidth="1"/>
+    <col min="3" max="3" width="116.44140625" customWidth="1"/>
     <col min="4" max="4" width="20.33203125" customWidth="1"/>
     <col min="5" max="5" width="54.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:5" ht="17.399999999999999" customHeight="1" thickBot="1">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="9" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7">
+    <row r="2" spans="1:5" ht="15" thickTop="1">
+      <c r="A2" s="11">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="5"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="6">
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="12">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="6">
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="12">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="6">
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="12">
         <v>4</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="6">
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="12">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="6">
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="12">
         <v>6</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="6">
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="12">
         <v>7</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="6">
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="12">
         <v>8</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="6">
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="12">
         <v>9</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="3"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="6">
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="12">
         <v>10</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="6">
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="12">
         <v>11</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E12" s="3"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="6">
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="12">
         <v>12</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="3"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="6">
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="12">
         <v>13</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="3"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="6">
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="12">
         <v>14</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E15" s="3"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="6">
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="12">
         <v>15</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E16" s="3"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="6">
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="12">
         <v>16</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="3"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="6">
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="12">
         <v>17</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E18" s="3"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="6">
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="12">
         <v>18</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="3"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="6">
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="12">
         <v>19</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E20" s="3"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="6">
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="12">
         <v>20</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E21" s="3"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="6">
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="12">
         <v>21</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E22" s="3"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="6">
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="12">
         <v>22</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E23" s="3"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="6">
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="12">
         <v>23</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E24" s="3"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="6">
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="12">
         <v>24</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E25" s="3"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="6">
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="12">
         <v>25</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E26" s="3"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="6">
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="12">
         <v>26</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E27" s="3"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="6">
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="12">
         <v>27</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E28" s="3"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="6">
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="12">
         <v>28</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E29" s="3"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="6">
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="12">
         <v>29</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E30" s="3"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="6">
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="12">
         <v>30</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D31" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E31" s="3"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="6">
+      <c r="E31" s="2"/>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="12">
         <v>31</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D32" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E32" s="3"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="6">
+      <c r="E32" s="2"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="12">
         <v>32</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C33" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D33" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E33" s="3"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="6">
+      <c r="E33" s="2"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="12">
         <v>33</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C34" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D34" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E34" s="3"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="6">
+      <c r="E34" s="2"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="12">
         <v>34</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C35" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D35" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E35" s="3"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="6">
+      <c r="E35" s="2"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="12">
         <v>35</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C36" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="D36" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E36" s="3"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="6">
+      <c r="E36" s="2"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="12">
         <v>36</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C37" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="D37" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E37" s="3"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="6">
+      <c r="E37" s="2"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="12">
         <v>37</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="C38" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D38" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E38" s="3"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="6">
+      <c r="E38" s="2"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="12">
         <v>38</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C39" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="D39" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E39" s="3"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="6">
+      <c r="E39" s="2"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="12">
         <v>39</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="C40" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="D40" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E40" s="6" t="s">
+      <c r="E40" s="5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="6">
+    <row r="41" spans="1:5">
+      <c r="A41" s="12">
         <v>40</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B41" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="C41" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="D41" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E41" s="3"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="6">
+      <c r="E41" s="2"/>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="12">
         <v>41</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B42" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="C42" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="D42" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E42" s="3"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="6">
+      <c r="E42" s="2"/>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="12">
         <v>42</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B43" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="C43" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="D43" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E43" s="3"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="6">
+      <c r="E43" s="2"/>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="12">
         <v>43</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="B44" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C44" s="6" t="s">
+      <c r="C44" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="D44" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E44" s="3"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="6">
+      <c r="E44" s="2"/>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="12">
         <v>44</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="B45" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C45" s="6" t="s">
+      <c r="C45" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="D45" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E45" s="3"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="6">
+      <c r="E45" s="2"/>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="12">
         <v>45</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="B46" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C46" s="6" t="s">
+      <c r="C46" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="D46" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E46" s="3"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="6">
+      <c r="E46" s="2"/>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="12">
         <v>46</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C47" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="D47" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E47" s="3"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="6">
+      <c r="E47" s="2"/>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="12">
         <v>47</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B48" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="C48" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D48" s="3" t="s">
+      <c r="D48" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E48" s="3"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="6">
+      <c r="E48" s="2"/>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="12">
         <v>48</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B49" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="C49" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="D49" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E49" s="3"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="6">
+      <c r="E49" s="2"/>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="12">
         <v>49</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B50" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C50" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D50" s="3" t="s">
+      <c r="D50" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E50" s="3"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="6">
+      <c r="E50" s="2"/>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="12">
         <v>50</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B51" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="C51" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="D51" s="3" t="s">
+      <c r="D51" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E51" s="3"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="6">
+      <c r="E51" s="2"/>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="12">
         <v>51</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B52" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="C52" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D52" s="3" t="s">
+      <c r="D52" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E52" s="3"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="6">
+      <c r="E52" s="2"/>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="12">
         <v>52</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B53" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="C53" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D53" s="3" t="s">
+      <c r="D53" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E53" s="3"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="6">
+      <c r="E53" s="2"/>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="12">
         <v>53</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B54" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="C54" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="D54" s="3" t="s">
+      <c r="D54" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E54" s="3"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="6">
+      <c r="E54" s="2"/>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="12">
         <v>54</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B55" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="C55" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D55" s="3" t="s">
+      <c r="D55" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E55" s="3" t="s">
+      <c r="E55" s="2" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="6">
+    <row r="56" spans="1:5">
+      <c r="A56" s="12">
         <v>55</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B56" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="C56" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D56" s="3" t="s">
+      <c r="D56" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E56" s="3" t="s">
+      <c r="E56" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="6">
+    <row r="57" spans="1:5">
+      <c r="A57" s="12">
         <v>56</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B57" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="C57" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D57" s="3" t="s">
+      <c r="D57" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E57" s="3"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="6">
+      <c r="E57" s="2"/>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="12">
         <v>57</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B58" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="C58" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D58" s="3" t="s">
+      <c r="D58" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E58" s="3"/>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" s="6">
+      <c r="E58" s="2"/>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="12">
         <v>58</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B59" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C59" s="3" t="s">
+      <c r="C59" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="D59" s="3" t="s">
+      <c r="D59" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E59" s="3"/>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" s="6">
+      <c r="E59" s="2"/>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="12">
         <v>59</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="B60" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C60" s="3" t="s">
+      <c r="C60" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D60" s="3" t="s">
+      <c r="D60" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E60" s="3" t="s">
+      <c r="E60" s="2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="6">
+    <row r="61" spans="1:5">
+      <c r="A61" s="12">
         <v>60</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B61" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C61" s="3" t="s">
+      <c r="C61" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D61" s="3" t="s">
+      <c r="D61" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E61" s="3"/>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" s="6">
+      <c r="E61" s="2"/>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="12">
         <v>61</v>
       </c>
-      <c r="B62" s="6" t="s">
+      <c r="B62" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="C62" s="6" t="s">
+      <c r="C62" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D62" s="3" t="s">
+      <c r="D62" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E62" s="3"/>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A63" s="6">
+      <c r="E62" s="2"/>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="12">
         <v>62</v>
       </c>
-      <c r="B63" s="6" t="s">
+      <c r="B63" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="C63" s="6" t="s">
+      <c r="C63" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="D63" s="3" t="s">
+      <c r="D63" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E63" s="3"/>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" s="6">
+      <c r="E63" s="2"/>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="12">
         <v>63</v>
       </c>
-      <c r="B64" s="6" t="s">
+      <c r="B64" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="C64" s="6" t="s">
+      <c r="C64" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D64" s="3" t="s">
+      <c r="D64" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E64" s="3"/>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" s="6">
+      <c r="E64" s="2"/>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="12">
         <v>64</v>
       </c>
-      <c r="B65" s="6" t="s">
+      <c r="B65" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="C65" s="6" t="s">
+      <c r="C65" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D65" s="3" t="s">
+      <c r="D65" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E65" s="3"/>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" s="6">
+      <c r="E65" s="2"/>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="12">
         <v>65</v>
       </c>
-      <c r="B66" s="6" t="s">
+      <c r="B66" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="C66" s="6" t="s">
+      <c r="C66" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D66" s="3" t="s">
+      <c r="D66" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E66" s="3"/>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67" s="6">
+      <c r="E66" s="2"/>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="12">
         <v>66</v>
       </c>
-      <c r="B67" s="6" t="s">
+      <c r="B67" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="C67" s="6" t="s">
+      <c r="C67" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D67" s="3" t="s">
+      <c r="D67" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E67" s="3"/>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" s="6">
+      <c r="E67" s="2"/>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="12">
         <v>67</v>
       </c>
-      <c r="B68" s="6" t="s">
+      <c r="B68" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="C68" s="6" t="s">
+      <c r="C68" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="D68" s="3" t="s">
+      <c r="D68" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E68" s="3"/>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" s="6">
+      <c r="E68" s="2"/>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="12">
         <v>68</v>
       </c>
-      <c r="B69" s="6" t="s">
+      <c r="B69" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="C69" s="6" t="s">
+      <c r="C69" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D69" s="3" t="s">
+      <c r="D69" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E69" s="3"/>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" s="6">
+      <c r="E69" s="2"/>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="12">
         <v>69</v>
       </c>
-      <c r="B70" s="6" t="s">
+      <c r="B70" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="C70" s="6" t="s">
+      <c r="C70" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="D70" s="3" t="s">
+      <c r="D70" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E70" s="3"/>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" s="6">
+      <c r="E70" s="2"/>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="12">
         <v>70</v>
       </c>
-      <c r="B71" s="6" t="s">
+      <c r="B71" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="C71" s="6" t="s">
+      <c r="C71" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D71" s="3" t="s">
+      <c r="D71" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E71" s="3"/>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72" s="6">
+      <c r="E71" s="2"/>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="12">
         <v>71</v>
       </c>
-      <c r="B72" s="6" t="s">
+      <c r="B72" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="C72" s="6" t="s">
+      <c r="C72" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D72" s="3" t="s">
+      <c r="D72" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E72" s="3"/>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A73" s="6">
+      <c r="E72" s="2"/>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="12">
         <v>72</v>
       </c>
-      <c r="B73" s="6" t="s">
+      <c r="B73" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="C73" s="6" t="s">
+      <c r="C73" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="D73" s="3" t="s">
+      <c r="D73" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E73" s="3"/>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" s="6">
+      <c r="E73" s="2"/>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="12">
         <v>73</v>
       </c>
-      <c r="B74" s="6" t="s">
+      <c r="B74" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="C74" s="6" t="s">
+      <c r="C74" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D74" s="3" t="s">
+      <c r="D74" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E74" s="3"/>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A75" s="6">
+      <c r="E74" s="2"/>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="12">
         <v>74</v>
       </c>
-      <c r="B75" s="6" t="s">
+      <c r="B75" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="C75" s="6" t="s">
+      <c r="C75" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D75" s="3" t="s">
+      <c r="D75" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E75" s="3"/>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A76" s="6">
+      <c r="E75" s="2"/>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="12">
         <v>75</v>
       </c>
-      <c r="B76" s="6" t="s">
+      <c r="B76" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="C76" s="6" t="s">
+      <c r="C76" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="D76" s="3" t="s">
+      <c r="D76" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E76" s="3"/>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A77" s="6">
+      <c r="E76" s="2"/>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="12">
         <v>76</v>
       </c>
-      <c r="B77" s="3" t="s">
+      <c r="B77" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C77" s="3" t="s">
+      <c r="C77" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D77" s="11" t="s">
+      <c r="D77" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E77" s="3"/>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A78" s="6">
+      <c r="E77" s="2"/>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="12">
         <v>77</v>
       </c>
-      <c r="B78" s="3" t="s">
+      <c r="B78" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C78" s="3" t="s">
+      <c r="C78" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="D78" s="11" t="s">
+      <c r="D78" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E78" s="3"/>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A79" s="6">
+      <c r="E78" s="2"/>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="12">
         <v>78</v>
       </c>
-      <c r="B79" s="3" t="s">
+      <c r="B79" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C79" s="3" t="s">
+      <c r="C79" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="D79" s="11" t="s">
+      <c r="D79" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E79" s="3"/>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A80" s="6">
+      <c r="E79" s="2"/>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="12">
         <v>79</v>
       </c>
-      <c r="B80" s="3" t="s">
+      <c r="B80" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C80" s="3" t="s">
+      <c r="C80" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="D80" s="11" t="s">
+      <c r="D80" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E80" s="3"/>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81" s="6">
+      <c r="E80" s="2"/>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="12">
         <v>80</v>
       </c>
-      <c r="B81" s="3" t="s">
+      <c r="B81" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C81" s="3" t="s">
+      <c r="C81" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="D81" s="11" t="s">
+      <c r="D81" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E81" s="3"/>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A82" s="6">
+      <c r="E81" s="2"/>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="12">
         <v>81</v>
       </c>
-      <c r="B82" s="3" t="s">
+      <c r="B82" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C82" s="3" t="s">
+      <c r="C82" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="D82" s="11" t="s">
+      <c r="D82" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E82" s="3"/>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A83" s="6">
+      <c r="E82" s="2"/>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="12">
         <v>82</v>
       </c>
-      <c r="B83" s="3" t="s">
+      <c r="B83" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C83" s="3" t="s">
+      <c r="C83" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="D83" s="11" t="s">
+      <c r="D83" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E83" s="3"/>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A84" s="6">
+      <c r="E83" s="2"/>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="12">
         <v>83</v>
       </c>
-      <c r="B84" s="3" t="s">
+      <c r="B84" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C84" s="3" t="s">
+      <c r="C84" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="D84" s="11" t="s">
+      <c r="D84" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E84" s="3"/>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A85" s="6">
+      <c r="E84" s="2"/>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="12">
         <v>84</v>
       </c>
-      <c r="B85" s="3" t="s">
+      <c r="B85" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C85" s="3" t="s">
+      <c r="C85" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="D85" s="11" t="s">
+      <c r="D85" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E85" s="3"/>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A86" s="6">
+      <c r="E85" s="2"/>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="12">
         <v>85</v>
       </c>
-      <c r="B86" s="3" t="s">
+      <c r="B86" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C86" s="3" t="s">
+      <c r="C86" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="D86" s="11" t="s">
+      <c r="D86" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E86" s="3"/>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A87" s="6">
+      <c r="E86" s="2"/>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="12">
         <v>86</v>
       </c>
-      <c r="B87" s="3" t="s">
+      <c r="B87" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C87" s="3" t="s">
+      <c r="C87" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="D87" s="11" t="s">
+      <c r="D87" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E87" s="3"/>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A88" s="6">
+      <c r="E87" s="2"/>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="12">
         <v>87</v>
       </c>
-      <c r="B88" s="3" t="s">
+      <c r="B88" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C88" s="3" t="s">
+      <c r="C88" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="D88" s="11" t="s">
+      <c r="D88" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E88" s="3"/>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A89" s="6">
+      <c r="E88" s="2"/>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="12">
         <v>88</v>
       </c>
-      <c r="B89" s="3" t="s">
+      <c r="B89" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C89" s="3" t="s">
+      <c r="C89" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="D89" s="11" t="s">
+      <c r="D89" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E89" s="3"/>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A90" s="6">
+      <c r="E89" s="2"/>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="12">
         <v>89</v>
       </c>
-      <c r="B90" s="3" t="s">
+      <c r="B90" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C90" s="3" t="s">
+      <c r="C90" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="D90" s="11" t="s">
+      <c r="D90" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E90" s="3" t="s">
+      <c r="E90" s="2" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A91" s="6">
+    <row r="91" spans="1:5">
+      <c r="A91" s="12">
         <v>90</v>
       </c>
-      <c r="B91" s="3" t="s">
+      <c r="B91" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C91" s="3" t="s">
+      <c r="C91" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="D91" s="11" t="s">
+      <c r="D91" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E91" s="3"/>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A92" s="6">
+      <c r="E91" s="2"/>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="12">
         <v>91</v>
       </c>
-      <c r="B92" s="3"/>
-      <c r="C92" s="3"/>
-      <c r="D92" s="3"/>
-      <c r="E92" s="3"/>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A93" s="6">
+      <c r="B92" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D92" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="E92" s="2"/>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="12">
         <v>92</v>
       </c>
-      <c r="B93" s="3"/>
-      <c r="C93" s="3"/>
-      <c r="D93" s="3"/>
-      <c r="E93" s="3"/>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A94" s="6">
+      <c r="B93" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D93" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="E93" s="2"/>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="12">
         <v>93</v>
       </c>
-      <c r="B94" s="3"/>
-      <c r="C94" s="3"/>
-      <c r="D94" s="3"/>
-      <c r="E94" s="3"/>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A95" s="6">
+      <c r="B94" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D94" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="E94" s="2"/>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" s="12">
         <v>94</v>
       </c>
-      <c r="B95" s="3"/>
-      <c r="C95" s="3"/>
-      <c r="D95" s="3"/>
-      <c r="E95" s="3"/>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A96" s="2"/>
-      <c r="B96" s="3"/>
-      <c r="C96" s="3"/>
-      <c r="D96" s="3"/>
-      <c r="E96" s="3"/>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A97" s="2"/>
-      <c r="B97" s="3"/>
-      <c r="C97" s="3"/>
-      <c r="D97" s="3"/>
-      <c r="E97" s="3"/>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A98" s="2"/>
-      <c r="B98" s="3"/>
-      <c r="C98" s="3"/>
-      <c r="D98" s="3"/>
-      <c r="E98" s="3"/>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A99" s="2"/>
-      <c r="B99" s="3"/>
-      <c r="C99" s="3"/>
-      <c r="D99" s="3"/>
-      <c r="E99" s="3"/>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A100" s="2"/>
-      <c r="B100" s="3"/>
-      <c r="C100" s="3"/>
-      <c r="D100" s="3"/>
-      <c r="E100" s="3"/>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A101" s="2"/>
-      <c r="B101" s="3"/>
-      <c r="C101" s="3"/>
-      <c r="D101" s="3"/>
-      <c r="E101" s="3"/>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A102" s="2"/>
-      <c r="B102" s="3"/>
-      <c r="C102" s="3"/>
-      <c r="D102" s="3"/>
-      <c r="E102" s="3"/>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A103" s="2"/>
-      <c r="B103" s="3"/>
-      <c r="C103" s="3"/>
-      <c r="D103" s="3"/>
-      <c r="E103" s="3"/>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A104" s="2">
+      <c r="B95" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D95" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="E95" s="2"/>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" s="12">
+        <v>95</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D96" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="E96" s="2"/>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="12">
+        <v>96</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D97" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="E97" s="2"/>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" s="12">
+        <v>97</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D98" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="E98" s="2"/>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" s="12">
+        <v>98</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D99" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="E99" s="2"/>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="12">
+        <v>99</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D100" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="E100" s="2"/>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="12">
+        <v>100</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D101" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" s="12">
+        <v>101</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D102" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="E102" s="2"/>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" s="12">
+        <v>102</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D103" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="E103" s="2"/>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" s="12">
         <v>103</v>
       </c>
-      <c r="B104" s="3"/>
-      <c r="C104" s="3"/>
-      <c r="D104" s="3"/>
-      <c r="E104" s="3"/>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A105" s="2">
+      <c r="B104" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D104" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="E104" s="2"/>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" s="12">
         <v>104</v>
       </c>
-      <c r="B105" s="3"/>
-      <c r="C105" s="3"/>
-      <c r="D105" s="3"/>
-      <c r="E105" s="3"/>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A106" s="2">
+      <c r="B105" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D105" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="E105" s="2"/>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" s="12">
         <v>105</v>
       </c>
-      <c r="B106" s="3"/>
-      <c r="C106" s="3"/>
-      <c r="D106" s="3"/>
-      <c r="E106" s="3"/>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A107" s="2">
+      <c r="B106" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D106" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="E106" s="2"/>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" s="12">
         <v>106</v>
       </c>
-      <c r="B107" s="4"/>
-      <c r="C107" s="3"/>
-      <c r="D107" s="3"/>
-      <c r="E107" s="3"/>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A108" s="2">
+      <c r="B107" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D107" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E107" s="2"/>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" s="12">
         <v>107</v>
       </c>
-      <c r="B108" s="4"/>
-      <c r="C108" s="3"/>
-      <c r="D108" s="3"/>
-      <c r="E108" s="3"/>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A109" s="2">
+      <c r="B108" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D108" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E108" s="2"/>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" s="13">
         <v>108</v>
       </c>
-      <c r="B109" s="4"/>
-      <c r="C109" s="3"/>
-      <c r="D109" s="3"/>
-      <c r="E109" s="3"/>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A110" s="2">
+      <c r="B109" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="C109" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="D109" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E109" s="2"/>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" s="12">
         <v>109</v>
       </c>
-      <c r="B110" s="4"/>
-      <c r="C110" s="3"/>
-      <c r="D110" s="3"/>
-      <c r="E110" s="3"/>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A111" s="2">
+      <c r="B110" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D110" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="E110" s="2"/>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" s="12">
         <v>110</v>
       </c>
-      <c r="B111" s="4"/>
-      <c r="C111" s="3"/>
-      <c r="D111" s="3"/>
-      <c r="E111" s="3"/>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A112" s="2">
+      <c r="B111" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D111" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="E111" s="2"/>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" s="12">
         <v>111</v>
       </c>
-      <c r="B112" s="4"/>
-      <c r="C112" s="3"/>
-      <c r="D112" s="3"/>
-      <c r="E112" s="3"/>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A113" s="2">
+      <c r="B112" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D112" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="E112" s="2"/>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" s="12">
         <v>112</v>
       </c>
-      <c r="B113" s="4"/>
-      <c r="C113" s="3"/>
-      <c r="D113" s="3"/>
-      <c r="E113" s="3"/>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A114" s="2">
+      <c r="B113" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D113" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="E113" s="2"/>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" s="12">
         <v>113</v>
       </c>
-      <c r="B114" s="4"/>
-      <c r="C114" s="3"/>
-      <c r="D114" s="3"/>
-      <c r="E114" s="3"/>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A115" s="2">
+      <c r="B114" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D114" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="E114" s="2"/>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" s="12">
         <v>114</v>
       </c>
-      <c r="B115" s="4"/>
-      <c r="C115" s="3"/>
-      <c r="D115" s="3"/>
-      <c r="E115" s="3"/>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A116" s="2">
+      <c r="B115" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D115" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="E115" s="2"/>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" s="12">
         <v>115</v>
       </c>
-      <c r="B116" s="4"/>
-      <c r="C116" s="3"/>
-      <c r="D116" s="3"/>
-      <c r="E116" s="3"/>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A117" s="2">
+      <c r="B116" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D116" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="E116" s="2"/>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" s="12">
         <v>116</v>
       </c>
-      <c r="B117" s="4"/>
-      <c r="C117" s="3"/>
-      <c r="D117" s="3"/>
-      <c r="E117" s="3"/>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A118" s="2">
+      <c r="B117" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D117" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="E117" s="2"/>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" s="12">
         <v>117</v>
       </c>
-      <c r="B118" s="4"/>
-      <c r="C118" s="3"/>
-      <c r="D118" s="3"/>
-      <c r="E118" s="3"/>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A119" s="2">
+      <c r="B118" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D118" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="E118" s="2"/>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" s="12">
         <v>118</v>
       </c>
-      <c r="B119" s="4"/>
-      <c r="C119" s="3"/>
-      <c r="D119" s="3"/>
-      <c r="E119" s="3"/>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A120" s="2">
+      <c r="B119" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D119" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="E119" s="2"/>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" s="12">
         <v>119</v>
       </c>
-      <c r="B120" s="4"/>
-      <c r="C120" s="3"/>
-      <c r="D120" s="3"/>
-      <c r="E120" s="3"/>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A121" s="2">
+      <c r="B120" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D120" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="E120" s="2"/>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" s="12">
         <v>120</v>
       </c>
-      <c r="B121" s="4"/>
-      <c r="C121" s="3"/>
-      <c r="D121" s="3"/>
-      <c r="E121" s="3"/>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A122" s="2">
+      <c r="B121" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="D121" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="E121" s="2"/>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" s="12">
         <v>121</v>
       </c>
-      <c r="B122" s="4"/>
-      <c r="C122" s="3"/>
-      <c r="D122" s="3"/>
-      <c r="E122" s="3"/>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A123" s="2">
+      <c r="B122" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="C122" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="E122" s="2"/>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" s="12">
         <v>122</v>
       </c>
-      <c r="B123" s="4"/>
-      <c r="C123" s="3"/>
-      <c r="D123" s="3"/>
-      <c r="E123" s="3"/>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A124" s="2">
+      <c r="B123" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C123" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="E123" s="2"/>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" s="12">
         <v>123</v>
       </c>
-      <c r="B124" s="4"/>
-      <c r="C124" s="3"/>
-      <c r="D124" s="3"/>
-      <c r="E124" s="3"/>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A125" s="2">
+      <c r="B124" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="C124" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="E124" s="2"/>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" s="12">
         <v>124</v>
       </c>
-      <c r="B125" s="4"/>
-      <c r="C125" s="3"/>
-      <c r="D125" s="3"/>
-      <c r="E125" s="3"/>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A126" s="2">
+      <c r="B125" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="C125" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="E125" s="2"/>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" s="12">
         <v>125</v>
       </c>
-      <c r="B126" s="4"/>
-      <c r="C126" s="3"/>
-      <c r="D126" s="3"/>
-      <c r="E126" s="3"/>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A127" s="2">
+      <c r="B126" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="C126" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="E126" s="2"/>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127" s="12">
         <v>126</v>
       </c>
-      <c r="B127" s="4"/>
-      <c r="C127" s="3"/>
-      <c r="D127" s="3"/>
-      <c r="E127" s="3"/>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A128" s="2">
+      <c r="B127" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="C127" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="E127" s="2"/>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128" s="12">
         <v>127</v>
       </c>
-      <c r="B128" s="4"/>
-      <c r="C128" s="3"/>
-      <c r="D128" s="3"/>
-      <c r="E128" s="3"/>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A129" s="2">
+      <c r="B128" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="C128" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="E128" s="2"/>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" s="12">
         <v>128</v>
       </c>
-      <c r="B129" s="4"/>
-      <c r="C129" s="3"/>
-      <c r="D129" s="3"/>
-      <c r="E129" s="3"/>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A130" s="2">
+      <c r="B129" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="C129" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="E129" s="2"/>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" s="12">
         <v>129</v>
       </c>
-      <c r="B130" s="4"/>
-      <c r="C130" s="3"/>
-      <c r="D130" s="3"/>
-      <c r="E130" s="3"/>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A131" s="2">
+      <c r="B130" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="C130" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="E130" s="2"/>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" s="12">
         <v>130</v>
       </c>
-      <c r="B131" s="4"/>
-      <c r="C131" s="3"/>
-      <c r="D131" s="3"/>
-      <c r="E131" s="3"/>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A132" s="2">
+      <c r="B131" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="C131" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="E131" s="2"/>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" s="12">
         <v>131</v>
       </c>
-      <c r="B132" s="4"/>
-      <c r="C132" s="3"/>
-      <c r="D132" s="3"/>
-      <c r="E132" s="3"/>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A133" s="2">
+      <c r="B132" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="C132" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="E132" s="2"/>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" s="12">
         <v>132</v>
       </c>
-      <c r="B133" s="4"/>
-      <c r="C133" s="3"/>
-      <c r="D133" s="3"/>
-      <c r="E133" s="3"/>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A134" s="2">
+      <c r="B133" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="C133" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="E133" s="2"/>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134" s="12">
         <v>133</v>
       </c>
-      <c r="B134" s="4"/>
-      <c r="C134" s="3"/>
-      <c r="D134" s="3"/>
-      <c r="E134" s="3"/>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A135" s="2">
+      <c r="B134" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="C134" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="E134" s="2"/>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" s="12">
         <v>134</v>
       </c>
-      <c r="B135" s="4"/>
-      <c r="C135" s="3"/>
-      <c r="D135" s="3"/>
-      <c r="E135" s="3"/>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A136" s="2">
+      <c r="B135" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="C135" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="E135" s="2"/>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136" s="12">
         <v>135</v>
       </c>
-      <c r="B136" s="4"/>
-      <c r="C136" s="3"/>
-      <c r="D136" s="3"/>
-      <c r="E136" s="3"/>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A137" s="2">
+      <c r="B136" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="C136" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="E136" s="2"/>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137" s="12">
         <v>136</v>
       </c>
-      <c r="B137" s="3"/>
-      <c r="C137" s="3"/>
-      <c r="D137" s="3"/>
-      <c r="E137" s="3"/>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A138" s="2">
+      <c r="B137" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D137" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="E137" s="2"/>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138" s="12">
         <v>137</v>
       </c>
-      <c r="B138" s="3"/>
-      <c r="C138" s="3"/>
-      <c r="D138" s="3"/>
-      <c r="E138" s="3"/>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A139" s="2">
+      <c r="B138" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="D138" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="E138" s="2"/>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139" s="12">
         <v>138</v>
       </c>
-      <c r="B139" s="3"/>
-      <c r="C139" s="3"/>
-      <c r="D139" s="3"/>
-      <c r="E139" s="3"/>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A140" s="2">
+      <c r="B139" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="D139" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="E139" s="2"/>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140" s="12">
         <v>139</v>
       </c>
-      <c r="B140" s="3"/>
-      <c r="C140" s="3"/>
-      <c r="D140" s="3"/>
-      <c r="E140" s="3"/>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A141" s="2">
+      <c r="B140" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="D140" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="E140" s="2"/>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141" s="12">
         <v>140</v>
       </c>
-      <c r="B141" s="3"/>
-      <c r="C141" s="3"/>
-      <c r="D141" s="3"/>
-      <c r="E141" s="3"/>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A142" s="2">
+      <c r="B141" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D141" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="E141" s="2"/>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142" s="12">
         <v>141</v>
       </c>
-      <c r="B142" s="3"/>
-      <c r="C142" s="3"/>
-      <c r="D142" s="3"/>
-      <c r="E142" s="3"/>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A143" s="2">
+      <c r="B142" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="D142" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="E142" s="2"/>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143" s="12">
         <v>142</v>
       </c>
-      <c r="B143" s="3"/>
-      <c r="C143" s="3"/>
-      <c r="D143" s="3"/>
-      <c r="E143" s="3"/>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A144" s="2">
+      <c r="B143" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="D143" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="E143" s="2"/>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144" s="12">
         <v>143</v>
       </c>
-      <c r="B144" s="3"/>
-      <c r="C144" s="3"/>
-      <c r="D144" s="3"/>
-      <c r="E144" s="3"/>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A145" s="2">
+      <c r="B144" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="D144" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="E144" s="2"/>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145" s="12">
         <v>144</v>
       </c>
-      <c r="B145" s="3"/>
-      <c r="C145" s="3"/>
-      <c r="D145" s="3"/>
-      <c r="E145" s="3"/>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A146" s="2">
+      <c r="B145" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="D145" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="E145" s="2"/>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146" s="12">
         <v>145</v>
       </c>
-      <c r="B146" s="3"/>
-      <c r="C146" s="3"/>
-      <c r="D146" s="3"/>
-      <c r="E146" s="3"/>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A147" s="2">
+      <c r="B146" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="D146" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="E146" s="2"/>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147" s="12">
         <v>146</v>
       </c>
-      <c r="B147" s="3"/>
-      <c r="C147" s="3"/>
-      <c r="D147" s="3"/>
-      <c r="E147" s="3"/>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A148" s="2">
+      <c r="B147" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D147" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="E147" s="2"/>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148" s="12">
         <v>147</v>
       </c>
-      <c r="B148" s="3"/>
-      <c r="C148" s="3"/>
-      <c r="D148" s="3"/>
-      <c r="E148" s="3"/>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A149" s="2">
+      <c r="B148" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="D148" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="E148" s="2"/>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149" s="12">
         <v>148</v>
       </c>
-      <c r="B149" s="3"/>
-      <c r="C149" s="3"/>
-      <c r="D149" s="3"/>
-      <c r="E149" s="3"/>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A150" s="2">
+      <c r="B149" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="D149" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="E149" s="2"/>
+    </row>
+    <row r="150" spans="1:5">
+      <c r="A150" s="12">
         <v>149</v>
       </c>
-      <c r="B150" s="3"/>
-      <c r="C150" s="3"/>
-      <c r="D150" s="3"/>
-      <c r="E150" s="3"/>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A151" s="2">
+      <c r="B150" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D150" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="E150" s="2"/>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="A151" s="12">
         <v>150</v>
       </c>
-      <c r="B151" s="3"/>
-      <c r="C151" s="3"/>
-      <c r="D151" s="3"/>
-      <c r="E151" s="3"/>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A152" s="2">
+      <c r="B151" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="D151" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="E151" s="2"/>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="A152" s="12">
         <v>151</v>
       </c>
-      <c r="B152" s="3"/>
-      <c r="C152" s="3"/>
-      <c r="D152" s="3"/>
-      <c r="E152" s="3"/>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A153" s="2">
+      <c r="B152" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="C152" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="E152" s="2"/>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153" s="12">
         <v>152</v>
       </c>
-      <c r="B153" s="3"/>
-      <c r="C153" s="3"/>
-      <c r="D153" s="3"/>
-      <c r="E153" s="3"/>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A154" s="2">
+      <c r="B153" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="C153" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="E153" s="2"/>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="A154" s="12">
         <v>153</v>
       </c>
-      <c r="B154" s="3"/>
-      <c r="C154" s="3"/>
-      <c r="D154" s="3"/>
-      <c r="E154" s="3"/>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A155" s="2">
+      <c r="B154" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="C154" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="E154" s="2"/>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="A155" s="12">
         <v>154</v>
       </c>
-      <c r="B155" s="3"/>
-      <c r="C155" s="3"/>
-      <c r="D155" s="3"/>
-      <c r="E155" s="3"/>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A156" s="2">
+      <c r="B155" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="C155" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="E155" s="2"/>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156" s="12">
         <v>155</v>
       </c>
-      <c r="B156" s="3"/>
-      <c r="C156" s="3"/>
-      <c r="D156" s="3"/>
-      <c r="E156" s="3"/>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A157" s="2">
+      <c r="B156" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="C156" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="E156" s="2"/>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="A157" s="12">
         <v>156</v>
       </c>
-      <c r="B157" s="3"/>
-      <c r="C157" s="3"/>
-      <c r="D157" s="3"/>
-      <c r="E157" s="3"/>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A158" s="2">
+      <c r="B157" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="C157" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="E157" s="2"/>
+    </row>
+    <row r="158" spans="1:5">
+      <c r="A158" s="12">
         <v>157</v>
       </c>
-      <c r="B158" s="3"/>
-      <c r="C158" s="3"/>
-      <c r="D158" s="3"/>
-      <c r="E158" s="3"/>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A159" s="2">
+      <c r="B158" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="C158" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="E158" s="2"/>
+    </row>
+    <row r="159" spans="1:5">
+      <c r="A159" s="12">
         <v>158</v>
       </c>
-      <c r="B159" s="3"/>
-      <c r="C159" s="3"/>
-      <c r="D159" s="3"/>
-      <c r="E159" s="3"/>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A160" s="2">
+      <c r="B159" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="C159" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="E159" s="2"/>
+    </row>
+    <row r="160" spans="1:5">
+      <c r="A160" s="12">
         <v>159</v>
       </c>
-      <c r="B160" s="3"/>
-      <c r="C160" s="3"/>
-      <c r="D160" s="3"/>
-      <c r="E160" s="3"/>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A161" s="2">
+      <c r="B160" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="C160" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="E160" s="2"/>
+    </row>
+    <row r="161" spans="1:5">
+      <c r="A161" s="12">
         <v>160</v>
       </c>
-      <c r="B161" s="3"/>
-      <c r="C161" s="3"/>
-      <c r="D161" s="3"/>
-      <c r="E161" s="3"/>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A162" s="2">
+      <c r="B161" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="C161" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="E161" s="2"/>
+    </row>
+    <row r="162" spans="1:5">
+      <c r="A162" s="12">
         <v>161</v>
       </c>
-      <c r="B162" s="3"/>
-      <c r="C162" s="3"/>
-      <c r="D162" s="3"/>
-      <c r="E162" s="3"/>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A163" s="2">
+      <c r="B162" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="C162" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="E162" s="2"/>
+    </row>
+    <row r="163" spans="1:5">
+      <c r="A163" s="12">
         <v>162</v>
       </c>
-      <c r="B163" s="3"/>
-      <c r="C163" s="3"/>
-      <c r="D163" s="3"/>
-      <c r="E163" s="3"/>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A164" s="2">
+      <c r="B163" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="C163" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="E163" s="2"/>
+    </row>
+    <row r="164" spans="1:5">
+      <c r="A164" s="12">
         <v>163</v>
       </c>
-      <c r="B164" s="3"/>
-      <c r="C164" s="3"/>
-      <c r="D164" s="3"/>
-      <c r="E164" s="3"/>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A165" s="2">
+      <c r="B164" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="C164" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="E164" s="2"/>
+    </row>
+    <row r="165" spans="1:5">
+      <c r="A165" s="12">
         <v>164</v>
       </c>
-      <c r="B165" s="3"/>
-      <c r="C165" s="3"/>
-      <c r="D165" s="3"/>
-      <c r="E165" s="3"/>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A166" s="2">
+      <c r="B165" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="C165" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="E165" s="2"/>
+    </row>
+    <row r="166" spans="1:5">
+      <c r="A166" s="12">
         <v>165</v>
       </c>
-      <c r="B166" s="3"/>
-      <c r="C166" s="3"/>
-      <c r="D166" s="3"/>
-      <c r="E166" s="3"/>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A167" s="2">
+      <c r="B166" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="C166" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="E166" s="2"/>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="A167" s="12">
         <v>166</v>
       </c>
-      <c r="B167" s="3"/>
-      <c r="C167" s="3"/>
-      <c r="D167" s="3"/>
-      <c r="E167" s="3"/>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A168" s="2">
+      <c r="B167" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="E167" s="2"/>
+    </row>
+    <row r="168" spans="1:5">
+      <c r="A168" s="12">
         <v>167</v>
       </c>
-      <c r="B168" s="3"/>
-      <c r="C168" s="3"/>
-      <c r="D168" s="3"/>
-      <c r="E168" s="3"/>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A169" s="2">
+      <c r="B168" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="E168" s="2"/>
+    </row>
+    <row r="169" spans="1:5">
+      <c r="A169" s="12">
         <v>168</v>
       </c>
-      <c r="B169" s="3"/>
-      <c r="C169" s="3"/>
-      <c r="D169" s="3"/>
-      <c r="E169" s="3"/>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A170" s="2">
+      <c r="B169" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="E169" s="2"/>
+    </row>
+    <row r="170" spans="1:5">
+      <c r="A170" s="12">
         <v>169</v>
       </c>
-      <c r="B170" s="3"/>
-      <c r="C170" s="3"/>
-      <c r="D170" s="3"/>
-      <c r="E170" s="3"/>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A171" s="2">
+      <c r="B170" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="E170" s="2"/>
+    </row>
+    <row r="171" spans="1:5">
+      <c r="A171" s="12">
         <v>170</v>
       </c>
-      <c r="B171" s="3"/>
-      <c r="C171" s="3"/>
-      <c r="D171" s="3"/>
-      <c r="E171" s="3"/>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A172" s="2">
+      <c r="B171" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="E171" s="2"/>
+    </row>
+    <row r="172" spans="1:5">
+      <c r="A172" s="12">
         <v>171</v>
       </c>
-      <c r="B172" s="3"/>
-      <c r="C172" s="3"/>
-      <c r="D172" s="3"/>
-      <c r="E172" s="3"/>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A173" s="2">
+      <c r="B172" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="E172" s="2"/>
+    </row>
+    <row r="173" spans="1:5">
+      <c r="A173" s="12">
         <v>172</v>
       </c>
-      <c r="B173" s="3"/>
-      <c r="C173" s="3"/>
-      <c r="D173" s="3"/>
-      <c r="E173" s="3"/>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A174" s="2">
+      <c r="B173" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="E173" s="2"/>
+    </row>
+    <row r="174" spans="1:5">
+      <c r="A174" s="12">
         <v>173</v>
       </c>
-      <c r="B174" s="3"/>
-      <c r="C174" s="3"/>
-      <c r="D174" s="3"/>
-      <c r="E174" s="3"/>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A175" s="2">
+      <c r="B174" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="E174" s="2"/>
+    </row>
+    <row r="175" spans="1:5">
+      <c r="A175" s="12">
         <v>174</v>
       </c>
-      <c r="B175" s="3"/>
-      <c r="C175" s="3"/>
-      <c r="D175" s="3"/>
-      <c r="E175" s="3"/>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A176" s="2">
+      <c r="B175" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="E175" s="2"/>
+    </row>
+    <row r="176" spans="1:5">
+      <c r="A176" s="12">
         <v>175</v>
       </c>
-      <c r="B176" s="3"/>
-      <c r="C176" s="3"/>
-      <c r="D176" s="3"/>
-      <c r="E176" s="3"/>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A177" s="2">
+      <c r="B176" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="E176" s="2"/>
+    </row>
+    <row r="177" spans="1:5">
+      <c r="A177" s="12">
         <v>176</v>
       </c>
-      <c r="B177" s="3"/>
-      <c r="C177" s="3"/>
-      <c r="D177" s="3"/>
-      <c r="E177" s="3"/>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A178" s="2">
+      <c r="B177" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="E177" s="2"/>
+    </row>
+    <row r="178" spans="1:5">
+      <c r="A178" s="12">
         <v>177</v>
       </c>
-      <c r="B178" s="3"/>
-      <c r="C178" s="3"/>
-      <c r="D178" s="3"/>
-      <c r="E178" s="3"/>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A179" s="2">
+      <c r="B178" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="E178" s="2"/>
+    </row>
+    <row r="179" spans="1:5">
+      <c r="A179" s="12">
         <v>178</v>
       </c>
-      <c r="B179" s="3"/>
-      <c r="C179" s="3"/>
-      <c r="D179" s="3"/>
-      <c r="E179" s="3"/>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A180" s="2">
+      <c r="B179" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="E179" s="2"/>
+    </row>
+    <row r="180" spans="1:5">
+      <c r="A180" s="12">
         <v>179</v>
       </c>
-      <c r="B180" s="3"/>
-      <c r="C180" s="3"/>
-      <c r="D180" s="3"/>
-      <c r="E180" s="3"/>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A181" s="2">
+      <c r="B180" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="E180" s="2"/>
+    </row>
+    <row r="181" spans="1:5">
+      <c r="A181" s="12">
         <v>180</v>
       </c>
-      <c r="B181" s="3"/>
-      <c r="C181" s="3"/>
-      <c r="D181" s="3"/>
-      <c r="E181" s="3"/>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A182" s="2">
+      <c r="B181" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="E181" s="2"/>
+    </row>
+    <row r="182" spans="1:5">
+      <c r="A182" s="12">
         <v>181</v>
       </c>
-      <c r="B182" s="3"/>
-      <c r="C182" s="3"/>
-      <c r="D182" s="3"/>
-      <c r="E182" s="3"/>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A183" s="2">
+      <c r="B182" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="C182" s="17" t="s">
+        <v>314</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="E182" s="2"/>
+    </row>
+    <row r="183" spans="1:5">
+      <c r="A183" s="12">
         <v>182</v>
       </c>
-      <c r="B183" s="3"/>
-      <c r="C183" s="3"/>
-      <c r="D183" s="3"/>
-      <c r="E183" s="3"/>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A184" s="2">
+      <c r="B183" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="C183" s="17" t="s">
+        <v>316</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="E183" s="2"/>
+    </row>
+    <row r="184" spans="1:5">
+      <c r="A184" s="12">
         <v>183</v>
       </c>
-      <c r="B184" s="3"/>
-      <c r="C184" s="3"/>
-      <c r="D184" s="3"/>
-      <c r="E184" s="3"/>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A185" s="2">
+      <c r="B184" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="C184" s="17" t="s">
+        <v>318</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="E184" s="2"/>
+    </row>
+    <row r="185" spans="1:5">
+      <c r="A185" s="12">
         <v>184</v>
       </c>
-      <c r="B185" s="3"/>
-      <c r="C185" s="3"/>
-      <c r="D185" s="3"/>
-      <c r="E185" s="3"/>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A186" s="2">
+      <c r="B185" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="C185" s="17" t="s">
+        <v>320</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="E185" s="2"/>
+    </row>
+    <row r="186" spans="1:5">
+      <c r="A186" s="12">
         <v>185</v>
       </c>
-      <c r="B186" s="3"/>
-      <c r="C186" s="3"/>
-      <c r="D186" s="3"/>
-      <c r="E186" s="3"/>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A187" s="2">
+      <c r="B186" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="C186" s="17" t="s">
+        <v>322</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="E186" s="2"/>
+    </row>
+    <row r="187" spans="1:5">
+      <c r="A187" s="12">
         <v>186</v>
       </c>
-      <c r="B187" s="3"/>
-      <c r="C187" s="3"/>
-      <c r="D187" s="3"/>
-      <c r="E187" s="3"/>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A188" s="2">
+      <c r="B187" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="C187" s="17" t="s">
+        <v>324</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="E187" s="2"/>
+    </row>
+    <row r="188" spans="1:5">
+      <c r="A188" s="12">
         <v>187</v>
       </c>
-      <c r="B188" s="3"/>
-      <c r="C188" s="3"/>
-      <c r="D188" s="3"/>
-      <c r="E188" s="3"/>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A189" s="2">
+      <c r="B188" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="C188" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="E188" s="2"/>
+    </row>
+    <row r="189" spans="1:5">
+      <c r="A189" s="12">
         <v>188</v>
       </c>
-      <c r="B189" s="3"/>
-      <c r="C189" s="3"/>
-      <c r="D189" s="3"/>
-      <c r="E189" s="3"/>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A190" s="2">
+      <c r="B189" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="C189" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="E189" s="2"/>
+    </row>
+    <row r="190" spans="1:5">
+      <c r="A190" s="12">
         <v>189</v>
       </c>
-      <c r="B190" s="3"/>
-      <c r="C190" s="3"/>
-      <c r="D190" s="3"/>
-      <c r="E190" s="3"/>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A191" s="2">
+      <c r="B190" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="C190" s="17" t="s">
+        <v>314</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="E190" s="2"/>
+    </row>
+    <row r="191" spans="1:5">
+      <c r="A191" s="12">
         <v>190</v>
       </c>
-      <c r="B191" s="3"/>
-      <c r="C191" s="3"/>
-      <c r="D191" s="3"/>
-      <c r="E191" s="3"/>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A192" s="2">
+      <c r="B191" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="C191" s="17" t="s">
+        <v>320</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="E191" s="2"/>
+    </row>
+    <row r="192" spans="1:5">
+      <c r="A192" s="12">
         <v>191</v>
       </c>
-      <c r="B192" s="3"/>
-      <c r="C192" s="3"/>
-      <c r="D192" s="3"/>
-      <c r="E192" s="3"/>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A193" s="2">
+      <c r="B192" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="C192" s="17" t="s">
+        <v>330</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="E192" s="2"/>
+    </row>
+    <row r="193" spans="1:5">
+      <c r="A193" s="12">
         <v>192</v>
       </c>
-      <c r="B193" s="3"/>
-      <c r="C193" s="3"/>
-      <c r="D193" s="3"/>
-      <c r="E193" s="3"/>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A194" s="2">
+      <c r="B193" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="C193" s="17" t="s">
+        <v>332</v>
+      </c>
+      <c r="D193" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="E193" s="2"/>
+    </row>
+    <row r="194" spans="1:5">
+      <c r="A194" s="12">
         <v>193</v>
       </c>
-      <c r="B194" s="3"/>
-      <c r="C194" s="3"/>
-      <c r="D194" s="3"/>
-      <c r="E194" s="3"/>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A195" s="2">
+      <c r="B194" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="C194" s="17" t="s">
+        <v>316</v>
+      </c>
+      <c r="D194" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="E194" s="2"/>
+    </row>
+    <row r="195" spans="1:5">
+      <c r="A195" s="12">
         <v>194</v>
       </c>
-      <c r="B195" s="3"/>
-      <c r="C195" s="3"/>
-      <c r="D195" s="3"/>
-      <c r="E195" s="3"/>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A196" s="2">
+      <c r="B195" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="C195" s="17" t="s">
+        <v>335</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="E195" s="2"/>
+    </row>
+    <row r="196" spans="1:5">
+      <c r="A196" s="12">
         <v>195</v>
       </c>
-      <c r="B196" s="3"/>
-      <c r="C196" s="3"/>
-      <c r="D196" s="3"/>
-      <c r="E196" s="3"/>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A197" s="2">
+      <c r="B196" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="C196" s="17" t="s">
+        <v>337</v>
+      </c>
+      <c r="D196" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="E196" s="2"/>
+    </row>
+    <row r="197" spans="1:5">
+      <c r="A197" s="12">
         <v>196</v>
       </c>
-      <c r="B197" s="4"/>
-      <c r="C197" s="3"/>
-      <c r="D197" s="3"/>
-      <c r="E197" s="3"/>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A198" s="2">
+      <c r="B197" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="E197" s="2"/>
+    </row>
+    <row r="198" spans="1:5">
+      <c r="A198" s="12">
         <v>197</v>
       </c>
-      <c r="B198" s="4"/>
-      <c r="C198" s="3"/>
-      <c r="D198" s="3"/>
-      <c r="E198" s="3"/>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A199" s="2">
+      <c r="B198" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="D198" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="E198" s="2"/>
+    </row>
+    <row r="199" spans="1:5">
+      <c r="A199" s="12">
         <v>198</v>
       </c>
-      <c r="B199" s="4"/>
-      <c r="C199" s="3"/>
-      <c r="D199" s="3"/>
-      <c r="E199" s="3"/>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A200" s="2">
+      <c r="B199" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="E199" s="2"/>
+    </row>
+    <row r="200" spans="1:5">
+      <c r="A200" s="12">
         <v>199</v>
       </c>
-      <c r="B200" s="4"/>
-      <c r="C200" s="3"/>
-      <c r="D200" s="3"/>
-      <c r="E200" s="3"/>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A201" s="2">
+      <c r="B200" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="E200" s="2"/>
+    </row>
+    <row r="201" spans="1:5">
+      <c r="A201" s="12">
         <v>200</v>
       </c>
-      <c r="B201" s="4"/>
-      <c r="C201" s="3"/>
-      <c r="D201" s="3"/>
-      <c r="E201" s="3"/>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A202" s="2">
+      <c r="B201" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="E201" s="2"/>
+    </row>
+    <row r="202" spans="1:5">
+      <c r="A202" s="12">
         <v>201</v>
       </c>
-      <c r="B202" s="4"/>
-      <c r="C202" s="3"/>
-      <c r="D202" s="3"/>
-      <c r="E202" s="3"/>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A203" s="2">
+      <c r="B202" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="E202" s="2"/>
+    </row>
+    <row r="203" spans="1:5">
+      <c r="A203" s="12">
         <v>202</v>
       </c>
-      <c r="B203" s="4"/>
-      <c r="C203" s="3"/>
-      <c r="D203" s="3"/>
-      <c r="E203" s="3"/>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A204" s="2">
+      <c r="B203" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="E203" s="2"/>
+    </row>
+    <row r="204" spans="1:5">
+      <c r="A204" s="12">
         <v>203</v>
       </c>
-      <c r="B204" s="4"/>
-      <c r="C204" s="3"/>
-      <c r="D204" s="3"/>
-      <c r="E204" s="3"/>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A205" s="2">
+      <c r="B204" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="D204" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="E204" s="2"/>
+    </row>
+    <row r="205" spans="1:5">
+      <c r="A205" s="12">
         <v>204</v>
       </c>
-      <c r="B205" s="4"/>
-      <c r="C205" s="3"/>
-      <c r="D205" s="3"/>
-      <c r="E205" s="3"/>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A206" s="2">
+      <c r="B205" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="D205" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="E205" s="2"/>
+    </row>
+    <row r="206" spans="1:5">
+      <c r="A206" s="12">
         <v>205</v>
       </c>
-      <c r="B206" s="4"/>
-      <c r="C206" s="3"/>
-      <c r="D206" s="3"/>
-      <c r="E206" s="3"/>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A207" s="2">
+      <c r="B206" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="D206" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="E206" s="2"/>
+    </row>
+    <row r="207" spans="1:5">
+      <c r="A207" s="12">
         <v>206</v>
       </c>
-      <c r="B207" s="4"/>
-      <c r="C207" s="3"/>
-      <c r="D207" s="3"/>
-      <c r="E207" s="3"/>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A208" s="2">
+      <c r="B207" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D207" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="E207" s="2"/>
+    </row>
+    <row r="208" spans="1:5">
+      <c r="A208" s="12">
         <v>207</v>
       </c>
-      <c r="B208" s="4"/>
-      <c r="C208" s="3"/>
-      <c r="D208" s="3"/>
-      <c r="E208" s="3"/>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A209" s="2">
+      <c r="B208" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="D208" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="E208" s="2"/>
+    </row>
+    <row r="209" spans="1:5">
+      <c r="A209" s="12">
         <v>208</v>
       </c>
-      <c r="B209" s="4"/>
-      <c r="C209" s="3"/>
-      <c r="D209" s="3"/>
-      <c r="E209" s="3"/>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A210" s="2">
+      <c r="B209" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="D209" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="E209" s="2"/>
+    </row>
+    <row r="210" spans="1:5">
+      <c r="A210" s="12">
         <v>209</v>
       </c>
-      <c r="B210" s="4"/>
-      <c r="C210" s="3"/>
-      <c r="D210" s="3"/>
-      <c r="E210" s="3"/>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A211" s="2">
+      <c r="B210" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="D210" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="E210" s="2"/>
+    </row>
+    <row r="211" spans="1:5">
+      <c r="A211" s="12">
         <v>210</v>
       </c>
-      <c r="B211" s="4"/>
-      <c r="C211" s="3"/>
-      <c r="D211" s="3"/>
-      <c r="E211" s="3"/>
+      <c r="B211" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="D211" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="E211" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/detectors/column/dataset/dataset.xlsx
+++ b/detectors/column/dataset/dataset.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\codes\nl2sql\detectors\column\dataset\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kuliah\KULIAH\SKRIPSI\kolom_detection\detectors\column\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{618D365B-298C-455A-AB6A-0930F66E6832}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81D556B9-1EEA-4D2A-9E52-73CFA3C2E505}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{051CEAFC-8F45-4008-BA77-57EAE0B1F215}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{051CEAFC-8F45-4008-BA77-57EAE0B1F215}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="355">
   <si>
     <t>database</t>
   </si>
@@ -159,9 +159,6 @@
     <t>Tampilkan semua transaksi masuk hari ini</t>
   </si>
   <si>
-    <t>transaksi.*</t>
-  </si>
-  <si>
     <t>Berapa jumlah produk dalam setiap kategori?</t>
   </si>
   <si>
@@ -324,9 +321,6 @@
     <t>Cari tamu yang alamatnya mengandung kata 'Jakarta'</t>
   </si>
   <si>
-    <t>tamu.*</t>
-  </si>
-  <si>
     <t>Hitung rata-rata harga kamar per tipe</t>
   </si>
   <si>
@@ -342,15 +336,9 @@
     <t>Cari tamu yang namanya mirip 'Budi'</t>
   </si>
   <si>
-    <t>tamu.* (id_tamu, nama, nomor_telepon, email, alamat)</t>
-  </si>
-  <si>
     <t>pemesanan.* (id_pemesanan, id_tamu, tanggal_check_in, tanggal_check_out, total_pembayaran, status_pemesanan)</t>
   </si>
   <si>
-    <t>tamu.nama, pemesanan.id_pemesanan</t>
-  </si>
-  <si>
     <t>kamar.nomor_kamar, kamar.tipe, kamar.harga_per_malam</t>
   </si>
   <si>
@@ -768,9 +756,6 @@
     <t>Laporan jurnal umum (transaksi + jurnal)</t>
   </si>
   <si>
-    <t>t.tanggal, a.kode_akun, a.nama_akun, j.debit, j.kredit</t>
-  </si>
-  <si>
     <t>Buku besar per akun tertentu</t>
   </si>
   <si>
@@ -786,9 +771,6 @@
     <t>Transaksi pembelian dari pemasok tertentu</t>
   </si>
   <si>
-    <t>t.id_transaksi, t.tanggal, t.jumlah, s.nama</t>
-  </si>
-  <si>
     <t>Daftar faktur yang belum dibayar</t>
   </si>
   <si>
@@ -804,9 +786,6 @@
     <t>Perbandingan pendapatan vs beban</t>
   </si>
   <si>
-    <t>a.jenis_akun, j.debit, j.kredit</t>
-  </si>
-  <si>
     <t>Riwayat transaksi per pelanggan</t>
   </si>
   <si>
@@ -928,9 +907,6 @@
   </si>
   <si>
     <t>ps.id_pesanan (dari pesanan), p.nama (dari pelanggan), pb.status_pembayaran (dari pembayaran)</t>
-  </si>
-  <si>
-    <t>total_harga (dari pesanan)</t>
   </si>
   <si>
     <t>pr.nama_produk (dari produk), ip.jumlah, ip.harga_satuan (dari item_pesanan)</t>
@@ -1473,6 +1449,21 @@
   </si>
   <si>
     <t>untuk penelitian selanjutnya: sistem usulan belum bisa membedakan kolom di bagian select dengan kolom setelah select</t>
+  </si>
+  <si>
+    <t>jenis_akun, debit, kredit</t>
+  </si>
+  <si>
+    <t>total_harga </t>
+  </si>
+  <si>
+    <t>nama, id_pemesanan</t>
+  </si>
+  <si>
+    <t>tanggal, kode_akun, nama_akun, debit, kredit</t>
+  </si>
+  <si>
+    <t>id_transaksi, tanggal, jumlah, nama</t>
   </si>
 </sst>
 </file>
@@ -1646,9 +1637,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1686,7 +1677,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1792,7 +1783,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1934,7 +1925,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1944,17 +1935,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{086A8FFE-D1A1-4733-8C5A-A48CAD4842F7}">
   <dimension ref="A1:D211"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B198" sqref="B198"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="88.81640625" customWidth="1"/>
-    <col min="2" max="2" width="20.08984375" customWidth="1"/>
-    <col min="3" max="3" width="20.36328125" customWidth="1"/>
-    <col min="4" max="4" width="54.1796875" customWidth="1"/>
+    <col min="1" max="1" width="88.77734375" customWidth="1"/>
+    <col min="2" max="2" width="57.77734375" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" customWidth="1"/>
+    <col min="4" max="4" width="54.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="17.399999999999999" customHeight="1" thickBot="1">
@@ -1973,49 +1964,49 @@
     </row>
     <row r="2" spans="1:4" ht="15" thickTop="1">
       <c r="A2" s="3" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>3</v>
@@ -2024,58 +2015,58 @@
         <v>9</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="12" customFormat="1">
       <c r="A6" s="10" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="12" customFormat="1">
       <c r="A7" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="C7" s="11" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="12" customFormat="1">
       <c r="A8" s="10" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="D8" s="10"/>
     </row>
     <row r="9" spans="1:4" s="12" customFormat="1">
       <c r="A9" s="10" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="D9" s="10"/>
     </row>
@@ -2114,7 +2105,7 @@
         <v>4</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2131,7 +2122,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>3</v>
@@ -2143,7 +2134,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>3</v>
@@ -2155,7 +2146,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>3</v>
@@ -2167,7 +2158,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>3</v>
@@ -2179,7 +2170,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>3</v>
@@ -2191,7 +2182,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>3</v>
@@ -2203,7 +2194,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>3</v>
@@ -2215,7 +2206,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>3</v>
@@ -2227,7 +2218,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>3</v>
@@ -2239,7 +2230,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>3</v>
@@ -2251,7 +2242,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="4" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>3</v>
@@ -2263,7 +2254,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="4" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>3</v>
@@ -2275,7 +2266,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="4" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>3</v>
@@ -2287,7 +2278,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="4" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>3</v>
@@ -2299,7 +2290,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="4" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>3</v>
@@ -2311,7 +2302,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>3</v>
@@ -2323,7 +2314,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="4" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>3</v>
@@ -2335,7 +2326,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>3</v>
@@ -2347,7 +2338,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="4" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>3</v>
@@ -2359,7 +2350,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="4" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>3</v>
@@ -2371,7 +2362,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>3</v>
@@ -2383,349 +2374,349 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D35" s="1"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="2" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D36" s="1"/>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="4" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="D37" s="1"/>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="4" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="D38" s="1"/>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="4" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="D39" s="1"/>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="4" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="D40" s="1"/>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="4" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="D41" s="1"/>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="4" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="D42" s="1"/>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="4" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="D43" s="1"/>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="4" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="D44" s="1"/>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="4" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="D45" s="1"/>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="4" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="D46" s="1"/>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="4" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="D47" s="1"/>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="4" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="D48" s="1"/>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="4" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="D49" s="1"/>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="4" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="D50" s="1"/>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="4" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="D51" s="1"/>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="4" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="D52" s="1"/>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="4" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="D53" s="1"/>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="4" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="D54" s="1"/>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="2" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="D55" s="1"/>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="2" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="D56" s="1"/>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="2" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="D57" s="1"/>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="2" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="D58" s="1"/>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="2" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="D59" s="1"/>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="2" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="D60" s="1"/>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>342</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>350</v>
       </c>
       <c r="D61" s="1"/>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="2" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="D62" s="1"/>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="D63" s="1"/>
     </row>
@@ -2734,55 +2725,55 @@
         <v>37</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="D64" s="1"/>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="D65" s="1"/>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="D66" s="1"/>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="D67" s="1"/>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="4" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>10</v>
@@ -2791,70 +2782,70 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="2" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D69" s="1"/>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>255</v>
+        <v>350</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="D70" s="1"/>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="D71" s="1"/>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D72" s="1"/>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D73" s="1"/>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>11</v>
@@ -2863,10 +2854,10 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>11</v>
@@ -2875,19 +2866,19 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="4" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="D76" s="1"/>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>3</v>
@@ -2899,10 +2890,10 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B78" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>12</v>
@@ -2911,34 +2902,34 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="D79" s="1"/>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="2" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D80" s="1"/>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B81" s="4" t="s">
         <v>75</v>
-      </c>
-      <c r="B81" s="4" t="s">
-        <v>76</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>8</v>
@@ -2947,17 +2938,17 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="D82" s="1"/>
     </row>
-    <row r="83" spans="1:4" ht="58">
+    <row r="83" spans="1:4" ht="57.6">
       <c r="A83" s="4" t="s">
         <v>21</v>
       </c>
@@ -2969,123 +2960,123 @@
       </c>
       <c r="D83" s="1"/>
     </row>
-    <row r="84" spans="1:4" ht="43.5">
+    <row r="84" spans="1:4" ht="43.2">
       <c r="A84" s="4" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="D84" s="1"/>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="2" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="D85" s="1"/>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="D86" s="1"/>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="D87" s="1"/>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="C88" s="1" t="s">
         <v>273</v>
-      </c>
-      <c r="B88" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>280</v>
       </c>
       <c r="D88" s="1"/>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="2" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="D89" s="1"/>
     </row>
-    <row r="90" spans="1:4" ht="29">
+    <row r="90" spans="1:4" ht="28.8">
       <c r="A90" s="4" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="D90" s="1"/>
     </row>
-    <row r="91" spans="1:4" ht="29">
+    <row r="91" spans="1:4" ht="28.8">
       <c r="A91" s="4" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="D91" s="1"/>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="D92" s="1"/>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="D93" s="1"/>
     </row>
@@ -3101,7 +3092,7 @@
       </c>
       <c r="D94" s="1"/>
     </row>
-    <row r="95" spans="1:4" ht="43.5">
+    <row r="95" spans="1:4" ht="28.8">
       <c r="A95" s="4" t="s">
         <v>34</v>
       </c>
@@ -3113,7 +3104,7 @@
       </c>
       <c r="D95" s="1"/>
     </row>
-    <row r="96" spans="1:4" ht="29">
+    <row r="96" spans="1:4" ht="28.8">
       <c r="A96" s="4" t="s">
         <v>17</v>
       </c>
@@ -3125,7 +3116,7 @@
       </c>
       <c r="D96" s="1"/>
     </row>
-    <row r="97" spans="1:4" ht="29">
+    <row r="97" spans="1:4" ht="28.8">
       <c r="A97" s="4" t="s">
         <v>27</v>
       </c>
@@ -3139,53 +3130,53 @@
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="B98" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="B98" s="1" t="s">
-        <v>349</v>
-      </c>
       <c r="C98" s="7" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="D98" s="1"/>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="4" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C99" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D99" s="1"/>
     </row>
-    <row r="100" spans="1:4" ht="41.5">
+    <row r="100" spans="1:4" ht="42">
       <c r="A100" s="4" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="D100" s="1"/>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="2" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="C101" s="7" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="D101" s="1"/>
     </row>
-    <row r="102" spans="1:4" ht="43.5">
+    <row r="102" spans="1:4" ht="43.2">
       <c r="A102" s="4" t="s">
         <v>23</v>
       </c>
@@ -3199,94 +3190,94 @@
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="4" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="D103" s="1"/>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="4" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="D104" s="1"/>
     </row>
-    <row r="105" spans="1:4" ht="43.5">
+    <row r="105" spans="1:4" ht="43.2">
       <c r="A105" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="C105" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="B105" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="C105" s="7" t="s">
-        <v>229</v>
-      </c>
       <c r="D105" s="1"/>
     </row>
-    <row r="106" spans="1:4" ht="41.5">
+    <row r="106" spans="1:4" ht="42">
       <c r="A106" s="4" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="B106" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="C106" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="D106" s="1"/>
+    </row>
+    <row r="107" spans="1:4" ht="42">
+      <c r="A107" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="C106" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="D106" s="1"/>
-    </row>
-    <row r="107" spans="1:4" ht="41.5">
-      <c r="A107" s="4" t="s">
-        <v>318</v>
-      </c>
       <c r="B107" s="8" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="D107" s="1"/>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="1" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="D108" s="1"/>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="9" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B109" s="9" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="D109" s="1"/>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>11</v>
@@ -3295,43 +3286,43 @@
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="4" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="D111" s="1"/>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="4" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="D112" s="1"/>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="4" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="D113" s="1"/>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>3</v>
@@ -3343,10 +3334,10 @@
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>9</v>
@@ -3355,10 +3346,10 @@
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>9</v>
@@ -3367,10 +3358,10 @@
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>12</v>
@@ -3379,10 +3370,10 @@
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>12</v>
@@ -3391,22 +3382,22 @@
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="1" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="B119" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C119" s="1" t="s">
         <v>253</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>260</v>
       </c>
       <c r="D119" s="1"/>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>11</v>
@@ -3415,10 +3406,10 @@
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>11</v>
@@ -3427,10 +3418,10 @@
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>11</v>
@@ -3439,10 +3430,10 @@
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>11</v>
@@ -3451,22 +3442,22 @@
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C124" s="1" t="s">
         <v>294</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>302</v>
       </c>
       <c r="D124" s="1"/>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>11</v>
@@ -3475,10 +3466,10 @@
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>11</v>
@@ -3487,10 +3478,10 @@
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>11</v>
@@ -3499,10 +3490,10 @@
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>11</v>
@@ -3511,10 +3502,10 @@
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B129" s="4" t="s">
         <v>77</v>
-      </c>
-      <c r="B129" s="4" t="s">
-        <v>78</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>8</v>
@@ -3523,22 +3514,22 @@
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="4" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="B130" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="D130" s="1"/>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="4" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>10</v>
@@ -3547,58 +3538,58 @@
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="4" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="D132" s="1"/>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="4" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="D133" s="1"/>
     </row>
-    <row r="134" spans="1:4" ht="27">
+    <row r="134" spans="1:4" ht="27.6">
       <c r="A134" s="4" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="B134" s="8" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="D134" s="1"/>
     </row>
-    <row r="135" spans="1:4" ht="27">
+    <row r="135" spans="1:4" ht="27.6">
       <c r="A135" s="4" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="B135" s="8" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="D135" s="1"/>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>10</v>
@@ -3607,10 +3598,10 @@
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="4" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>10</v>
@@ -3619,10 +3610,10 @@
     </row>
     <row r="138" spans="1:4">
       <c r="A138" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B138" s="4" t="s">
         <v>64</v>
-      </c>
-      <c r="B138" s="4" t="s">
-        <v>65</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>8</v>
@@ -3631,25 +3622,25 @@
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="4" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="D139" s="1"/>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="4" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="D140" s="1"/>
     </row>
@@ -3677,7 +3668,7 @@
       </c>
       <c r="D142" s="1"/>
     </row>
-    <row r="143" spans="1:4" ht="29">
+    <row r="143" spans="1:4" ht="28.8">
       <c r="A143" s="4" t="s">
         <v>31</v>
       </c>
@@ -3703,94 +3694,94 @@
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="2" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D145" s="1"/>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D146" s="1"/>
     </row>
     <row r="147" spans="1:4">
       <c r="A147" s="2" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D147" s="1"/>
     </row>
     <row r="148" spans="1:4">
       <c r="A148" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B148" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="B148" s="1" t="s">
-        <v>205</v>
-      </c>
       <c r="C148" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D148" s="1"/>
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D149" s="1"/>
     </row>
     <row r="150" spans="1:4">
       <c r="A150" s="2" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="D150" s="1"/>
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B151" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="B151" s="1" t="s">
-        <v>348</v>
-      </c>
       <c r="C151" s="1" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="D151" s="1"/>
     </row>
-    <row r="152" spans="1:4" ht="29">
+    <row r="152" spans="1:4" ht="28.8">
       <c r="A152" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B152" s="4" t="s">
         <v>72</v>
-      </c>
-      <c r="B152" s="4" t="s">
-        <v>73</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>8</v>
@@ -3799,58 +3790,58 @@
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D153" s="1"/>
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="2" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D154" s="1"/>
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="2" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D155" s="1"/>
     </row>
     <row r="156" spans="1:4">
       <c r="A156" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C156" s="1" t="s">
         <v>203</v>
-      </c>
-      <c r="B156" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="C156" s="1" t="s">
-        <v>207</v>
       </c>
       <c r="D156" s="1"/>
     </row>
     <row r="157" spans="1:4">
       <c r="A157" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C157" s="1" t="s">
         <v>11</v>
@@ -3859,10 +3850,10 @@
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>11</v>
@@ -3871,226 +3862,226 @@
     </row>
     <row r="159" spans="1:4">
       <c r="A159" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D159" s="1"/>
     </row>
     <row r="160" spans="1:4">
       <c r="A160" s="4" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="B160" s="8" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="D160" s="1"/>
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="4" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="B161" s="8" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="D161" s="1"/>
     </row>
     <row r="162" spans="1:4">
       <c r="A162" s="4" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="B162" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="C162" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="C162" s="1" t="s">
-        <v>328</v>
-      </c>
       <c r="D162" s="1"/>
     </row>
-    <row r="163" spans="1:4" ht="27">
+    <row r="163" spans="1:4" ht="27.6">
       <c r="A163" s="4" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="B163" s="8" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="D163" s="1"/>
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="2" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D164" s="1"/>
     </row>
     <row r="165" spans="1:4">
       <c r="A165" s="2" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D165" s="1"/>
     </row>
     <row r="166" spans="1:4">
       <c r="A166" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D166" s="1"/>
     </row>
     <row r="167" spans="1:4">
       <c r="A167" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D167" s="1"/>
     </row>
     <row r="168" spans="1:4">
       <c r="A168" s="1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D168" s="1"/>
     </row>
     <row r="169" spans="1:4">
       <c r="A169" s="1" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="D169" s="1"/>
     </row>
     <row r="170" spans="1:4">
       <c r="A170" s="1" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="D170" s="1"/>
     </row>
     <row r="171" spans="1:4">
       <c r="A171" s="1" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="D171" s="1"/>
     </row>
     <row r="172" spans="1:4">
       <c r="A172" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D172" s="1"/>
     </row>
     <row r="173" spans="1:4">
       <c r="A173" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D173" s="1"/>
     </row>
     <row r="174" spans="1:4">
       <c r="A174" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B174" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C174" s="1" t="s">
         <v>178</v>
-      </c>
-      <c r="C174" s="1" t="s">
-        <v>182</v>
       </c>
       <c r="D174" s="1"/>
     </row>
     <row r="175" spans="1:4">
       <c r="A175" s="2" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D175" s="1"/>
     </row>
     <row r="176" spans="1:4">
       <c r="A176" s="2" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D176" s="1"/>
     </row>
     <row r="177" spans="1:4">
       <c r="A177" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C177" s="1" t="s">
         <v>9</v>
@@ -4099,10 +4090,10 @@
     </row>
     <row r="178" spans="1:4">
       <c r="A178" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B178" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="B178" s="1" t="s">
-        <v>84</v>
       </c>
       <c r="C178" s="1" t="s">
         <v>9</v>
@@ -4111,10 +4102,10 @@
     </row>
     <row r="179" spans="1:4">
       <c r="A179" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B179" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="B179" s="1" t="s">
-        <v>88</v>
       </c>
       <c r="C179" s="1" t="s">
         <v>9</v>
@@ -4123,10 +4114,10 @@
     </row>
     <row r="180" spans="1:4">
       <c r="A180" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C180" s="1" t="s">
         <v>9</v>
@@ -4135,10 +4126,10 @@
     </row>
     <row r="181" spans="1:4">
       <c r="A181" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C181" s="1" t="s">
         <v>9</v>
@@ -4147,37 +4138,37 @@
     </row>
     <row r="182" spans="1:4">
       <c r="A182" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D182" s="1"/>
     </row>
     <row r="183" spans="1:4">
       <c r="A183" s="1" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="D183" s="1"/>
     </row>
     <row r="184" spans="1:4">
       <c r="A184" s="1" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="D184" s="1"/>
     </row>
@@ -4195,7 +4186,7 @@
     </row>
     <row r="186" spans="1:4">
       <c r="A186" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B186" s="1" t="s">
         <v>38</v>
@@ -4207,7 +4198,7 @@
     </row>
     <row r="187" spans="1:4">
       <c r="A187" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B187" s="1" t="s">
         <v>38</v>
@@ -4219,7 +4210,7 @@
     </row>
     <row r="188" spans="1:4">
       <c r="A188" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B188" s="1" t="s">
         <v>38</v>
@@ -4231,7 +4222,7 @@
     </row>
     <row r="189" spans="1:4">
       <c r="A189" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B189" s="1" t="s">
         <v>38</v>
@@ -4246,7 +4237,7 @@
         <v>36</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C190" s="1" t="s">
         <v>12</v>
@@ -4255,25 +4246,25 @@
     </row>
     <row r="191" spans="1:4">
       <c r="A191" s="1" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="D191" s="1"/>
     </row>
     <row r="192" spans="1:4">
       <c r="A192" s="1" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="D192" s="1"/>
     </row>
@@ -4291,22 +4282,22 @@
     </row>
     <row r="194" spans="1:4">
       <c r="A194" s="4" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="B194" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="D194" s="1"/>
     </row>
     <row r="195" spans="1:4">
       <c r="A195" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B195" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="B195" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="C195" s="1" t="s">
         <v>12</v>
@@ -4315,10 +4306,10 @@
     </row>
     <row r="196" spans="1:4">
       <c r="A196" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C196" s="1" t="s">
         <v>12</v>
@@ -4327,46 +4318,46 @@
     </row>
     <row r="197" spans="1:4">
       <c r="A197" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="D197" s="1"/>
     </row>
     <row r="198" spans="1:4">
       <c r="A198" s="1" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>249</v>
+        <v>354</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="D198" s="1"/>
     </row>
     <row r="199" spans="1:4">
       <c r="A199" s="1" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>243</v>
+        <v>353</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="D199" s="1"/>
     </row>
     <row r="200" spans="1:4">
       <c r="A200" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>95</v>
+        <v>3</v>
       </c>
       <c r="C200" s="1" t="s">
         <v>9</v>
@@ -4375,10 +4366,10 @@
     </row>
     <row r="201" spans="1:4">
       <c r="A201" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>95</v>
+        <v>3</v>
       </c>
       <c r="C201" s="1" t="s">
         <v>9</v>
@@ -4387,10 +4378,10 @@
     </row>
     <row r="202" spans="1:4">
       <c r="A202" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>101</v>
+        <v>293</v>
       </c>
       <c r="C202" s="1" t="s">
         <v>9</v>
@@ -4399,10 +4390,10 @@
     </row>
     <row r="203" spans="1:4">
       <c r="A203" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>103</v>
+        <v>352</v>
       </c>
       <c r="C203" s="1" t="s">
         <v>9</v>
@@ -4411,61 +4402,61 @@
     </row>
     <row r="204" spans="1:4">
       <c r="A204" s="2" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D204" s="1"/>
     </row>
     <row r="205" spans="1:4">
       <c r="A205" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D205" s="1"/>
     </row>
     <row r="206" spans="1:4">
       <c r="A206" s="2" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="D206" s="1"/>
     </row>
     <row r="207" spans="1:4">
       <c r="A207" s="1" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>297</v>
+        <v>351</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="D207" s="1"/>
     </row>
     <row r="208" spans="1:4">
       <c r="A208" s="1" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>297</v>
+        <v>351</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="D208" s="1"/>
     </row>
@@ -4474,7 +4465,7 @@
         <v>39</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="C209" s="1" t="s">
         <v>12</v>
@@ -4483,10 +4474,10 @@
     </row>
     <row r="210" spans="1:4">
       <c r="A210" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="C210" s="1" t="s">
         <v>12</v>
@@ -4495,10 +4486,10 @@
     </row>
     <row r="211" spans="1:4">
       <c r="A211" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C211" s="1" t="s">
         <v>12</v>

--- a/detectors/column/dataset/dataset.xlsx
+++ b/detectors/column/dataset/dataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kuliah\KULIAH\SKRIPSI\kolom_detection\detectors\column\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81D556B9-1EEA-4D2A-9E52-73CFA3C2E505}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6255FD54-2967-4E0A-BDF1-D4DD29D012A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{051CEAFC-8F45-4008-BA77-57EAE0B1F215}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="334">
   <si>
     <t>database</t>
   </si>
@@ -105,9 +105,6 @@
     <t>Tampilkan detail pengeluaran untuk barang dengan nama 'Kabel HDMI'.</t>
   </si>
   <si>
-    <t>id_detail, id_pengeluaran, id_barang, jumlah, harga_keluar</t>
-  </si>
-  <si>
     <t>Tampilkan semua supplier yang pernah melakukan pembelian.</t>
   </si>
   <si>
@@ -153,9 +150,6 @@
     <t>Produk apa saja yang stoknya di bawah 10?</t>
   </si>
   <si>
-    <t>produk.*</t>
-  </si>
-  <si>
     <t>Tampilkan semua transaksi masuk hari ini</t>
   </si>
   <si>
@@ -174,9 +168,6 @@
     <t>Berapa total penjualan bulan ini?</t>
   </si>
   <si>
-    <t>detail_transaksi.subtotal</t>
-  </si>
-  <si>
     <t>Produk apa saja yang belum pernah terjual?</t>
   </si>
   <si>
@@ -198,12 +189,6 @@
     <t>Siapa supplier untuk produk dengan ID 12?</t>
   </si>
   <si>
-    <t>supplier.*</t>
-  </si>
-  <si>
-    <t>produk.* (semua kolom dari tabel produk)</t>
-  </si>
-  <si>
     <t>kategori.nama_kategori, produk.id_produk</t>
   </si>
   <si>
@@ -213,9 +198,6 @@
     <t>kategori.nama_kategori, produk.harga_beli</t>
   </si>
   <si>
-    <t>user.username, transaksi.id_transaksi</t>
-  </si>
-  <si>
     <t>Tampilkan semua data tamu.</t>
   </si>
   <si>
@@ -288,9 +270,6 @@
     <t>Hitung total pembayaran yang dilakukan hari ini</t>
   </si>
   <si>
-    <t>pembayaran.jumlah</t>
-  </si>
-  <si>
     <t>Siapa tamu yang paling sering memesan kamar?</t>
   </si>
   <si>
@@ -300,9 +279,6 @@
     <t>Cari pemesanan yang check-in antara 1 Januari 2024 sampai 10 Januari 2024</t>
   </si>
   <si>
-    <t>pemesanan.*</t>
-  </si>
-  <si>
     <t>Tampilkan pembayaran yang menggunakan metode 'transfer'</t>
   </si>
   <si>
@@ -336,15 +312,6 @@
     <t>Cari tamu yang namanya mirip 'Budi'</t>
   </si>
   <si>
-    <t>pemesanan.* (id_pemesanan, id_tamu, tanggal_check_in, tanggal_check_out, total_pembayaran, status_pemesanan)</t>
-  </si>
-  <si>
-    <t>kamar.nomor_kamar, kamar.tipe, kamar.harga_per_malam</t>
-  </si>
-  <si>
-    <t>pembayaran.* (id_pembayaran, id_pemesanan, jumlah, metode_pembayaran, tanggal_pembayaran)</t>
-  </si>
-  <si>
     <t>kamar.tipe, kamar.harga_per_malam</t>
   </si>
   <si>
@@ -438,9 +405,6 @@
     <t>Hitung IPK Budi Santoso</t>
   </si>
   <si>
-    <t>m.nama_mahasiswa</t>
-  </si>
-  <si>
     <t>Tampilkan mahasiswa yang lahir pada tahun 2000</t>
   </si>
   <si>
@@ -465,9 +429,6 @@
     <t>Tampilkan semua kelas yang diajar oleh Dr. Ahmad Yani</t>
   </si>
   <si>
-    <t>m.nim, m.nama_mahasiswa, m.tanggal_lahir, m.alamat, m.id_jurusan</t>
-  </si>
-  <si>
     <t>mk.nama_matkul, d.nama_dosen, k.jam</t>
   </si>
   <si>
@@ -480,27 +441,18 @@
     <t>nama_mahasiswa, tanggal_lahir</t>
   </si>
   <si>
-    <t>m.nim, m.nama_mahasiswa</t>
-  </si>
-  <si>
     <t>m.nama_mahasiswa, n.nilai_angka</t>
   </si>
   <si>
     <t>(Tidak ada kolom spesifik, hanya SUM yang digunakan)</t>
   </si>
   <si>
-    <t>mk.nama_matkul, k.hari, k.jam</t>
-  </si>
-  <si>
     <t>Tampilkan daftar seluruh pegawai</t>
   </si>
   <si>
     <t>Tampilkan pegawai yang bekerja di departemen IT</t>
   </si>
   <si>
-    <t>p.id_pegawai, p.nama, p.tanggal_lahir, p.jenis_kelamin, p.alamat, p.email, p.no_telepon, p.id_jabatan, p.id_departemen</t>
-  </si>
-  <si>
     <t>Berapa banyak pegawai di setiap departemen?</t>
   </si>
   <si>
@@ -549,9 +501,6 @@
     <t>Tampilkan 5 pegawai dengan persentase kehadiran terendah bulan ini</t>
   </si>
   <si>
-    <t>p.nama</t>
-  </si>
-  <si>
     <t>Tampilkan pelatihan yang akan datang dalam 30 hari ke depan</t>
   </si>
   <si>
@@ -567,9 +516,6 @@
     <t>Tampilkan permohonan cuti yang belum disetujui</t>
   </si>
   <si>
-    <t>p.nama, c.id_cuti, c.tanggal_mulai, c.tanggal_selesai, c.jenis_cuti, c.status</t>
-  </si>
-  <si>
     <t>Tampilkan rekap persentase kehadiran per departemen bulan ini</t>
   </si>
   <si>
@@ -600,9 +546,6 @@
     <t>Siapa saja pegawai yang terlibat dalam proyek 'Pengembangan Aplikasi Mobile'?</t>
   </si>
   <si>
-    <t>p.nama_lengkap</t>
-  </si>
-  <si>
     <t>Tampilkan semua catatan absensi untuk pegawai dengan nama 'Ahmad Yani' pada tanggal '2024-05-10'.</t>
   </si>
   <si>
@@ -639,9 +582,6 @@
     <t>Urutkan semua pegawai berdasarkan tanggal mulai kerja dari yang terbaru.</t>
   </si>
   <si>
-    <t>p.id_pegawai, pr.nama_proyek</t>
-  </si>
-  <si>
     <t>nama_jabatan, gaji_pokok</t>
   </si>
   <si>
@@ -711,30 +651,18 @@
     <t>Tampilkan detail transaksi beserta nama akun dan jenis akunnya.</t>
   </si>
   <si>
-    <t>id_detail, id_transaksi, id_akun, debit, kredit, nama_akun, tipe_akun</t>
-  </si>
-  <si>
     <t>akuntansi_1.json</t>
   </si>
   <si>
     <t>Daftar semua akun buku besar</t>
   </si>
   <si>
-    <t>id_akun, kode_akun, nama_akun, jenis_akun, saldo</t>
-  </si>
-  <si>
     <t>Riwayat semua transaksi keuangan</t>
   </si>
   <si>
-    <t>id_transaksi, tanggal, jumlah, deskripsi, id_pelanggan, id_pemasok</t>
-  </si>
-  <si>
     <t>Seluruh entri jurnal akuntansi</t>
   </si>
   <si>
-    <t>id_jurnal, id_transaksi, id_akun, debit, kredit, tanggal_posting</t>
-  </si>
-  <si>
     <t>Data master pelanggan</t>
   </si>
   <si>
@@ -750,9 +678,6 @@
     <t>Semua faktur yang tercatat</t>
   </si>
   <si>
-    <t>id_faktur, id_transaksi, tanggal_faktur, tanggal_jatuh_tempo, status</t>
-  </si>
-  <si>
     <t>Laporan jurnal umum (transaksi + jurnal)</t>
   </si>
   <si>
@@ -774,9 +699,6 @@
     <t>Daftar faktur yang belum dibayar</t>
   </si>
   <si>
-    <t>f.id_faktur, f.tanggal_faktur, f.tanggal_jatuh_tempo, t.jumlah</t>
-  </si>
-  <si>
     <t>Daftar saldo akun aset</t>
   </si>
   <si>
@@ -906,16 +828,7 @@
     <t>p.nama (dari pelanggan), ps.id_pesanan (dari pesanan)</t>
   </si>
   <si>
-    <t>ps.id_pesanan (dari pesanan), p.nama (dari pelanggan), pb.status_pembayaran (dari pembayaran)</t>
-  </si>
-  <si>
     <t>pr.nama_produk (dari produk), ip.jumlah, ip.harga_satuan (dari item_pesanan)</t>
-  </si>
-  <si>
-    <t>pr.nama_produk (dari produk), ip.jumlah (dari item_pesanan)</t>
-  </si>
-  <si>
-    <t>metode_pembayaran (dari pembayaran</t>
   </si>
   <si>
     <t>* </t>
@@ -1415,18 +1328,12 @@
     <t>nama_kategori</t>
   </si>
   <si>
-    <t>id_detail_pesanan, id_pesanan, id_produk, jumlah, subtotal, nama_produk</t>
-  </si>
-  <si>
     <t>id_produk, nama_produk, jumlah</t>
   </si>
   <si>
     <t>nama_kategori, harga</t>
   </si>
   <si>
-    <t>id_pesanan, id_pelanggan, tanggal_pesanan, total_harga, status, nama</t>
-  </si>
-  <si>
     <t>penjualan_2.json</t>
   </si>
   <si>
@@ -1464,6 +1371,36 @@
   </si>
   <si>
     <t>id_transaksi, tanggal, jumlah, nama</t>
+  </si>
+  <si>
+    <t>tipe</t>
+  </si>
+  <si>
+    <t>subtotal</t>
+  </si>
+  <si>
+    <t>hari, jam</t>
+  </si>
+  <si>
+    <t>metode_pembayaran </t>
+  </si>
+  <si>
+    <t>nim, nama_mahasiswa</t>
+  </si>
+  <si>
+    <t>nama_mahasiswa</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>id_pegawai, nama_proyek</t>
+  </si>
+  <si>
+    <t>pr.nama_produk, ip.jumlah </t>
+  </si>
+  <si>
+    <t>p.nama, ps.id_pesanan (dari pesanan)</t>
   </si>
 </sst>
 </file>
@@ -1484,18 +1421,12 @@
       <name val="Arial Unicode MS"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="7">
@@ -1590,7 +1521,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1611,12 +1542,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1936,16 +1861,16 @@
   <dimension ref="A1:D211"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B198" sqref="B198"/>
+      <pane ySplit="1" topLeftCell="A160" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B169" sqref="B169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="88.77734375" customWidth="1"/>
-    <col min="2" max="2" width="57.77734375" customWidth="1"/>
+    <col min="2" max="2" width="61.6640625" customWidth="1"/>
     <col min="3" max="3" width="20.33203125" customWidth="1"/>
-    <col min="4" max="4" width="54.21875" customWidth="1"/>
+    <col min="4" max="4" width="98.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="17.399999999999999" customHeight="1" thickBot="1">
@@ -1964,49 +1889,49 @@
     </row>
     <row r="2" spans="1:4" ht="15" thickTop="1">
       <c r="A2" s="3" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>344</v>
+        <v>313</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="4" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>343</v>
+        <v>312</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>343</v>
+        <v>312</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>3</v>
@@ -2015,60 +1940,60 @@
         <v>9</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" s="12" customFormat="1">
-      <c r="A6" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>345</v>
-      </c>
-      <c r="C6" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="10" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" s="12" customFormat="1">
-      <c r="A7" s="10" t="s">
+      <c r="D6" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B7" s="11" t="s">
-        <v>346</v>
-      </c>
-      <c r="C7" s="11" t="s">
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="10" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" s="12" customFormat="1">
-      <c r="A8" s="10" t="s">
-        <v>286</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>347</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>294</v>
-      </c>
-      <c r="D8" s="10"/>
-    </row>
-    <row r="9" spans="1:4" s="12" customFormat="1">
-      <c r="A9" s="10" t="s">
-        <v>282</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>348</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>294</v>
-      </c>
-      <c r="D9" s="10"/>
+      <c r="D7" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="4" t="s">
@@ -2094,23 +2019,23 @@
       </c>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:4" s="12" customFormat="1">
-      <c r="A12" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="11" t="s">
+    <row r="12" spans="1:4">
+      <c r="A12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="10" t="s">
-        <v>349</v>
+      <c r="D12" s="1" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>3</v>
@@ -2122,7 +2047,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="4" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>3</v>
@@ -2134,7 +2059,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="4" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>3</v>
@@ -2146,7 +2071,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="4" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>3</v>
@@ -2158,7 +2083,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="4" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>3</v>
@@ -2170,10 +2095,10 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="4" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>3</v>
+        <v>324</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>8</v>
@@ -2182,7 +2107,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="4" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>3</v>
@@ -2194,7 +2119,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>3</v>
@@ -2206,7 +2131,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="4" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>3</v>
@@ -2218,7 +2143,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="4" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>3</v>
@@ -2230,7 +2155,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="4" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>3</v>
@@ -2242,7 +2167,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="4" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>3</v>
@@ -2254,7 +2179,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="4" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>3</v>
@@ -2266,7 +2191,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="4" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>3</v>
@@ -2278,7 +2203,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="4" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>3</v>
@@ -2290,7 +2215,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="4" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>3</v>
@@ -2302,7 +2227,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="4" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>3</v>
@@ -2314,7 +2239,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="4" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>3</v>
@@ -2326,7 +2251,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="4" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>3</v>
@@ -2338,7 +2263,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="4" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>3</v>
@@ -2350,7 +2275,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="4" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>3</v>
@@ -2362,7 +2287,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>3</v>
@@ -2374,406 +2299,406 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="D35" s="1"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="2" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>203</v>
+        <v>183</v>
       </c>
       <c r="D36" s="1"/>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>204</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>225</v>
       </c>
       <c r="D37" s="1"/>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="4" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>225</v>
+        <v>204</v>
       </c>
       <c r="D38" s="1"/>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="4" t="s">
-        <v>206</v>
+        <v>186</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>225</v>
+        <v>204</v>
       </c>
       <c r="D39" s="1"/>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="4" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>225</v>
+        <v>204</v>
       </c>
       <c r="D40" s="1"/>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="4" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>225</v>
+        <v>204</v>
       </c>
       <c r="D41" s="1"/>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="4" t="s">
-        <v>213</v>
+        <v>193</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>225</v>
+        <v>204</v>
       </c>
       <c r="D42" s="1"/>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="4" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>225</v>
+        <v>204</v>
       </c>
       <c r="D43" s="1"/>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="4" t="s">
-        <v>219</v>
+        <v>199</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>225</v>
+        <v>204</v>
       </c>
       <c r="D44" s="1"/>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="4" t="s">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>225</v>
+        <v>204</v>
       </c>
       <c r="D45" s="1"/>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="4" t="s">
-        <v>254</v>
+        <v>228</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>273</v>
+        <v>247</v>
       </c>
       <c r="D46" s="1"/>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="4" t="s">
-        <v>256</v>
+        <v>230</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>273</v>
+        <v>247</v>
       </c>
       <c r="D47" s="1"/>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="4" t="s">
-        <v>257</v>
+        <v>231</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>273</v>
+        <v>247</v>
       </c>
       <c r="D48" s="1"/>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="4" t="s">
-        <v>260</v>
+        <v>234</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>273</v>
+        <v>247</v>
       </c>
       <c r="D49" s="1"/>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="4" t="s">
-        <v>263</v>
+        <v>237</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>273</v>
+        <v>247</v>
       </c>
       <c r="D50" s="1"/>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="4" t="s">
-        <v>264</v>
+        <v>238</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>273</v>
+        <v>247</v>
       </c>
       <c r="D51" s="1"/>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="4" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>273</v>
+        <v>247</v>
       </c>
       <c r="D52" s="1"/>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="4" t="s">
-        <v>269</v>
+        <v>243</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>273</v>
+        <v>247</v>
       </c>
       <c r="D53" s="1"/>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="4" t="s">
-        <v>270</v>
+        <v>244</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>273</v>
+        <v>247</v>
       </c>
       <c r="D54" s="1"/>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="2" t="s">
-        <v>321</v>
+        <v>292</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>342</v>
+        <v>311</v>
       </c>
       <c r="D55" s="1"/>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="2" t="s">
-        <v>322</v>
+        <v>293</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>342</v>
+        <v>311</v>
       </c>
       <c r="D56" s="1"/>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="2" t="s">
-        <v>323</v>
+        <v>294</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>342</v>
+        <v>311</v>
       </c>
       <c r="D57" s="1"/>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="2" t="s">
-        <v>325</v>
+        <v>296</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>342</v>
+        <v>311</v>
       </c>
       <c r="D58" s="1"/>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="2" t="s">
-        <v>329</v>
+        <v>300</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>342</v>
+        <v>311</v>
       </c>
       <c r="D59" s="1"/>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="2" t="s">
-        <v>331</v>
+        <v>302</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>342</v>
+        <v>311</v>
       </c>
       <c r="D60" s="1"/>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="2" t="s">
-        <v>334</v>
+        <v>305</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>342</v>
+        <v>311</v>
       </c>
       <c r="D61" s="1"/>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="2" t="s">
-        <v>335</v>
+        <v>306</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>342</v>
+        <v>311</v>
       </c>
       <c r="D62" s="1"/>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>274</v>
+        <v>248</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>293</v>
+        <v>264</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>294</v>
+        <v>265</v>
       </c>
       <c r="D63" s="1"/>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>293</v>
+        <v>264</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>294</v>
+        <v>265</v>
       </c>
       <c r="D64" s="1"/>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>285</v>
+        <v>259</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>293</v>
+        <v>264</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>294</v>
+        <v>265</v>
       </c>
       <c r="D65" s="1"/>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>283</v>
+        <v>257</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>293</v>
+        <v>264</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>294</v>
+        <v>265</v>
       </c>
       <c r="D66" s="1"/>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>277</v>
+        <v>251</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>293</v>
+        <v>264</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>294</v>
+        <v>265</v>
       </c>
       <c r="D67" s="1"/>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="4" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>293</v>
+        <v>264</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>10</v>
@@ -2782,70 +2707,70 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="2" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>293</v>
+        <v>264</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>203</v>
+        <v>183</v>
       </c>
       <c r="D69" s="1"/>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>248</v>
+        <v>222</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>350</v>
+        <v>319</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>253</v>
+        <v>227</v>
       </c>
       <c r="D70" s="1"/>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>239</v>
+        <v>214</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>240</v>
+        <v>215</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>253</v>
+        <v>227</v>
       </c>
       <c r="D71" s="1"/>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="D72" s="1"/>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="D73" s="1"/>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>11</v>
@@ -2854,10 +2779,10 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>11</v>
@@ -2866,19 +2791,19 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="4" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>212</v>
+        <v>192</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>225</v>
+        <v>204</v>
       </c>
       <c r="D76" s="1"/>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>3</v>
@@ -2890,10 +2815,10 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>45</v>
+        <v>325</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>12</v>
@@ -2902,34 +2827,34 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>244</v>
+        <v>219</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>245</v>
+        <v>3</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>253</v>
+        <v>227</v>
       </c>
       <c r="D79" s="1"/>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="2" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>203</v>
+        <v>183</v>
       </c>
       <c r="D80" s="1"/>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="4" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>8</v>
@@ -2938,145 +2863,145 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>226</v>
+        <v>205</v>
       </c>
       <c r="B82" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C82" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="C82" s="1" t="s">
-        <v>253</v>
-      </c>
       <c r="D82" s="1"/>
     </row>
-    <row r="83" spans="1:4" ht="57.6">
+    <row r="83" spans="1:4">
       <c r="A83" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D83" s="1"/>
     </row>
-    <row r="84" spans="1:4" ht="43.2">
+    <row r="84" spans="1:4">
       <c r="A84" s="4" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>224</v>
+        <v>3</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>225</v>
+        <v>204</v>
       </c>
       <c r="D84" s="1"/>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="2" t="s">
-        <v>326</v>
+        <v>297</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>338</v>
+        <v>3</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>342</v>
+        <v>311</v>
       </c>
       <c r="D85" s="1"/>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>236</v>
+        <v>212</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>237</v>
+        <v>3</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>253</v>
+        <v>227</v>
       </c>
       <c r="D86" s="1"/>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>231</v>
+        <v>3</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>253</v>
+        <v>227</v>
       </c>
       <c r="D87" s="1"/>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="4" t="s">
-        <v>266</v>
+        <v>240</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>267</v>
+        <v>241</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>273</v>
+        <v>247</v>
       </c>
       <c r="D88" s="1"/>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="2" t="s">
-        <v>324</v>
+        <v>295</v>
       </c>
       <c r="B89" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="D89" s="1"/>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="B90" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="C89" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="D89" s="1"/>
-    </row>
-    <row r="90" spans="1:4" ht="28.8">
-      <c r="A90" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="B90" s="8" t="s">
-        <v>296</v>
-      </c>
       <c r="C90" s="1" t="s">
-        <v>320</v>
+        <v>291</v>
       </c>
       <c r="D90" s="1"/>
     </row>
-    <row r="91" spans="1:4" ht="28.8">
+    <row r="91" spans="1:4">
       <c r="A91" s="4" t="s">
-        <v>309</v>
+        <v>280</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>296</v>
+        <v>267</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>320</v>
+        <v>291</v>
       </c>
       <c r="D91" s="1"/>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>232</v>
+        <v>208</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>233</v>
+        <v>209</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>253</v>
+        <v>227</v>
       </c>
       <c r="D92" s="1"/>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>234</v>
+        <v>210</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>235</v>
+        <v>211</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>253</v>
+        <v>227</v>
       </c>
       <c r="D93" s="1"/>
     </row>
@@ -3092,19 +3017,19 @@
       </c>
       <c r="D94" s="1"/>
     </row>
-    <row r="95" spans="1:4" ht="28.8">
+    <row r="95" spans="1:4">
       <c r="A95" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B95" s="4" t="s">
         <v>34</v>
-      </c>
-      <c r="B95" s="4" t="s">
-        <v>35</v>
       </c>
       <c r="C95" s="7" t="s">
         <v>4</v>
       </c>
       <c r="D95" s="1"/>
     </row>
-    <row r="96" spans="1:4" ht="28.8">
+    <row r="96" spans="1:4">
       <c r="A96" s="4" t="s">
         <v>17</v>
       </c>
@@ -3116,9 +3041,9 @@
       </c>
       <c r="D96" s="1"/>
     </row>
-    <row r="97" spans="1:4" ht="28.8">
+    <row r="97" spans="1:4">
       <c r="A97" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>18</v>
@@ -3130,58 +3055,58 @@
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="2" t="s">
-        <v>333</v>
+        <v>304</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>341</v>
+        <v>3</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>342</v>
+        <v>311</v>
       </c>
       <c r="D98" s="1"/>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="4" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="C99" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D99" s="1"/>
     </row>
-    <row r="100" spans="1:4" ht="42">
+    <row r="100" spans="1:4">
       <c r="A100" s="4" t="s">
-        <v>299</v>
+        <v>270</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>300</v>
+        <v>271</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>320</v>
+        <v>291</v>
       </c>
       <c r="D100" s="1"/>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="2" t="s">
-        <v>330</v>
+        <v>301</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>339</v>
+        <v>309</v>
       </c>
       <c r="C101" s="7" t="s">
-        <v>342</v>
+        <v>311</v>
       </c>
       <c r="D101" s="1"/>
     </row>
-    <row r="102" spans="1:4" ht="43.2">
+    <row r="102" spans="1:4">
       <c r="A102" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B102" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="B102" s="4" t="s">
-        <v>24</v>
       </c>
       <c r="C102" s="7" t="s">
         <v>4</v>
@@ -3190,94 +3115,94 @@
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="4" t="s">
-        <v>313</v>
+        <v>284</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>314</v>
+        <v>285</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>320</v>
+        <v>291</v>
       </c>
       <c r="D103" s="1"/>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="4" t="s">
-        <v>303</v>
+        <v>274</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>304</v>
+        <v>275</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>320</v>
+        <v>291</v>
       </c>
       <c r="D104" s="1"/>
     </row>
-    <row r="105" spans="1:4" ht="43.2">
+    <row r="105" spans="1:4">
       <c r="A105" s="4" t="s">
-        <v>221</v>
+        <v>201</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>225</v>
+        <v>204</v>
       </c>
       <c r="D105" s="1"/>
     </row>
-    <row r="106" spans="1:4" ht="42">
+    <row r="106" spans="1:4">
       <c r="A106" s="4" t="s">
-        <v>301</v>
+        <v>272</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>302</v>
+        <v>273</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>320</v>
+        <v>291</v>
       </c>
       <c r="D106" s="1"/>
     </row>
-    <row r="107" spans="1:4" ht="42">
+    <row r="107" spans="1:4">
       <c r="A107" s="4" t="s">
-        <v>310</v>
+        <v>281</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>302</v>
+        <v>273</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>320</v>
+        <v>291</v>
       </c>
       <c r="D107" s="1"/>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="1" t="s">
-        <v>228</v>
+        <v>206</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>229</v>
+        <v>3</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>253</v>
+        <v>227</v>
       </c>
       <c r="D108" s="1"/>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="9" t="s">
-        <v>215</v>
+        <v>195</v>
       </c>
       <c r="B109" s="9" t="s">
-        <v>216</v>
+        <v>196</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>225</v>
+        <v>204</v>
       </c>
       <c r="D109" s="1"/>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="1" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>11</v>
@@ -3286,43 +3211,43 @@
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="4" t="s">
-        <v>271</v>
+        <v>245</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>272</v>
+        <v>246</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>273</v>
+        <v>247</v>
       </c>
       <c r="D111" s="1"/>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="4" t="s">
-        <v>261</v>
+        <v>235</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>262</v>
+        <v>236</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>273</v>
+        <v>247</v>
       </c>
       <c r="D112" s="1"/>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="4" t="s">
-        <v>268</v>
+        <v>242</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>262</v>
+        <v>236</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>273</v>
+        <v>247</v>
       </c>
       <c r="D113" s="1"/>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>3</v>
@@ -3334,10 +3259,10 @@
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="1" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>9</v>
@@ -3346,10 +3271,10 @@
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="1" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>9</v>
@@ -3358,10 +3283,10 @@
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>12</v>
@@ -3370,10 +3295,10 @@
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>12</v>
@@ -3382,22 +3307,22 @@
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="1" t="s">
-        <v>246</v>
+        <v>220</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>247</v>
+        <v>221</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>253</v>
+        <v>227</v>
       </c>
       <c r="D119" s="1"/>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="1" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>133</v>
+        <v>329</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>11</v>
@@ -3406,10 +3331,10 @@
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="1" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>11</v>
@@ -3418,10 +3343,10 @@
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="1" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>147</v>
+        <v>328</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>11</v>
@@ -3430,10 +3355,10 @@
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="1" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>142</v>
+        <v>3</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>11</v>
@@ -3442,22 +3367,22 @@
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="1" t="s">
-        <v>287</v>
+        <v>261</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>292</v>
+        <v>327</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>294</v>
+        <v>265</v>
       </c>
       <c r="D124" s="1"/>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="1" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>11</v>
@@ -3466,10 +3391,10 @@
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="1" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>11</v>
@@ -3478,10 +3403,10 @@
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="1" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>150</v>
+        <v>326</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>11</v>
@@ -3490,10 +3415,10 @@
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="1" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>11</v>
@@ -3502,10 +3427,10 @@
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>8</v>
@@ -3514,22 +3439,22 @@
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="4" t="s">
-        <v>307</v>
+        <v>278</v>
       </c>
       <c r="B130" s="8" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>320</v>
+        <v>291</v>
       </c>
       <c r="D130" s="1"/>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="4" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>10</v>
@@ -3538,58 +3463,58 @@
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="4" t="s">
-        <v>255</v>
+        <v>229</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>273</v>
+        <v>247</v>
       </c>
       <c r="D132" s="1"/>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="4" t="s">
-        <v>258</v>
+        <v>232</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>259</v>
+        <v>233</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>273</v>
+        <v>247</v>
       </c>
       <c r="D133" s="1"/>
     </row>
-    <row r="134" spans="1:4" ht="27.6">
+    <row r="134" spans="1:4">
       <c r="A134" s="4" t="s">
-        <v>318</v>
+        <v>289</v>
       </c>
       <c r="B134" s="8" t="s">
-        <v>319</v>
+        <v>290</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>320</v>
+        <v>291</v>
       </c>
       <c r="D134" s="1"/>
     </row>
-    <row r="135" spans="1:4" ht="27.6">
+    <row r="135" spans="1:4">
       <c r="A135" s="4" t="s">
-        <v>316</v>
+        <v>287</v>
       </c>
       <c r="B135" s="8" t="s">
-        <v>317</v>
+        <v>288</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>320</v>
+        <v>291</v>
       </c>
       <c r="D135" s="1"/>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" s="4" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>10</v>
@@ -3598,10 +3523,10 @@
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="4" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>10</v>
@@ -3610,10 +3535,10 @@
     </row>
     <row r="138" spans="1:4">
       <c r="A138" s="4" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>8</v>
@@ -3622,34 +3547,34 @@
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="4" t="s">
-        <v>217</v>
+        <v>197</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>225</v>
+        <v>204</v>
       </c>
       <c r="D139" s="1"/>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="4" t="s">
-        <v>207</v>
+        <v>187</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>208</v>
+        <v>188</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>225</v>
+        <v>204</v>
       </c>
       <c r="D140" s="1"/>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B141" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="B141" s="4" t="s">
-        <v>30</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>4</v>
@@ -3658,7 +3583,7 @@
     </row>
     <row r="142" spans="1:4">
       <c r="A142" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B142" s="4" t="s">
         <v>7</v>
@@ -3668,12 +3593,12 @@
       </c>
       <c r="D142" s="1"/>
     </row>
-    <row r="143" spans="1:4" ht="28.8">
+    <row r="143" spans="1:4">
       <c r="A143" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B143" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="B143" s="4" t="s">
-        <v>32</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>4</v>
@@ -3694,94 +3619,94 @@
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="2" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>203</v>
+        <v>183</v>
       </c>
       <c r="D145" s="1"/>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C146" s="1" t="s">
         <v>160</v>
-      </c>
-      <c r="B146" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C146" s="1" t="s">
-        <v>178</v>
       </c>
       <c r="D146" s="1"/>
     </row>
     <row r="147" spans="1:4">
       <c r="A147" s="2" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>203</v>
+        <v>183</v>
       </c>
       <c r="D147" s="1"/>
     </row>
     <row r="148" spans="1:4">
       <c r="A148" s="2" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>203</v>
+        <v>183</v>
       </c>
       <c r="D148" s="1"/>
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="1" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="D149" s="1"/>
     </row>
     <row r="150" spans="1:4">
       <c r="A150" s="2" t="s">
-        <v>336</v>
+        <v>307</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>337</v>
+        <v>308</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>342</v>
+        <v>311</v>
       </c>
       <c r="D150" s="1"/>
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="2" t="s">
-        <v>332</v>
+        <v>303</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>340</v>
+        <v>310</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>342</v>
+        <v>311</v>
       </c>
       <c r="D151" s="1"/>
     </row>
-    <row r="152" spans="1:4" ht="28.8">
+    <row r="152" spans="1:4">
       <c r="A152" s="4" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>8</v>
@@ -3790,58 +3715,58 @@
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="2" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>203</v>
+        <v>183</v>
       </c>
       <c r="D153" s="1"/>
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C154" s="1" t="s">
         <v>183</v>
-      </c>
-      <c r="B154" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C154" s="1" t="s">
-        <v>203</v>
       </c>
       <c r="D154" s="1"/>
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="2" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>203</v>
+        <v>183</v>
       </c>
       <c r="D155" s="1"/>
     </row>
     <row r="156" spans="1:4">
       <c r="A156" s="2" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>203</v>
+        <v>183</v>
       </c>
       <c r="D156" s="1"/>
     </row>
     <row r="157" spans="1:4">
       <c r="A157" s="1" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="C157" s="1" t="s">
         <v>11</v>
@@ -3850,10 +3775,10 @@
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="1" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>11</v>
@@ -3862,226 +3787,226 @@
     </row>
     <row r="159" spans="1:4">
       <c r="A159" s="1" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="D159" s="1"/>
     </row>
     <row r="160" spans="1:4">
       <c r="A160" s="4" t="s">
-        <v>297</v>
+        <v>268</v>
       </c>
       <c r="B160" s="8" t="s">
-        <v>298</v>
+        <v>269</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>320</v>
+        <v>291</v>
       </c>
       <c r="D160" s="1"/>
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="4" t="s">
-        <v>315</v>
+        <v>286</v>
       </c>
       <c r="B161" s="8" t="s">
-        <v>298</v>
+        <v>269</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>320</v>
+        <v>291</v>
       </c>
       <c r="D161" s="1"/>
     </row>
     <row r="162" spans="1:4">
       <c r="A162" s="4" t="s">
-        <v>311</v>
+        <v>282</v>
       </c>
       <c r="B162" s="8" t="s">
-        <v>312</v>
+        <v>283</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>320</v>
+        <v>291</v>
       </c>
       <c r="D162" s="1"/>
     </row>
-    <row r="163" spans="1:4" ht="27.6">
+    <row r="163" spans="1:4">
       <c r="A163" s="4" t="s">
-        <v>305</v>
+        <v>276</v>
       </c>
       <c r="B163" s="8" t="s">
-        <v>306</v>
+        <v>277</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>320</v>
+        <v>291</v>
       </c>
       <c r="D163" s="1"/>
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="2" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>203</v>
+        <v>183</v>
       </c>
       <c r="D164" s="1"/>
     </row>
     <row r="165" spans="1:4">
       <c r="A165" s="2" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>200</v>
+        <v>331</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>203</v>
+        <v>183</v>
       </c>
       <c r="D165" s="1"/>
     </row>
     <row r="166" spans="1:4">
       <c r="A166" s="1" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>153</v>
+        <v>3</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="D166" s="1"/>
     </row>
     <row r="167" spans="1:4">
       <c r="A167" s="1" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>153</v>
+        <v>3</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="D167" s="1"/>
     </row>
     <row r="168" spans="1:4">
       <c r="A168" s="1" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>170</v>
+        <v>71</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="D168" s="1"/>
     </row>
     <row r="169" spans="1:4">
       <c r="A169" s="1" t="s">
-        <v>275</v>
+        <v>249</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>288</v>
+        <v>333</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>294</v>
+        <v>265</v>
       </c>
       <c r="D169" s="1"/>
     </row>
     <row r="170" spans="1:4">
       <c r="A170" s="1" t="s">
-        <v>280</v>
+        <v>254</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>288</v>
+        <v>262</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>294</v>
+        <v>265</v>
       </c>
       <c r="D170" s="1"/>
     </row>
     <row r="171" spans="1:4">
       <c r="A171" s="1" t="s">
-        <v>249</v>
+        <v>223</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>250</v>
+        <v>224</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>253</v>
+        <v>227</v>
       </c>
       <c r="D171" s="1"/>
     </row>
     <row r="172" spans="1:4">
       <c r="A172" s="1" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>176</v>
+        <v>3</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="D172" s="1"/>
     </row>
     <row r="173" spans="1:4">
       <c r="A173" s="1" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="D173" s="1"/>
     </row>
     <row r="174" spans="1:4">
       <c r="A174" s="1" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="D174" s="1"/>
     </row>
     <row r="175" spans="1:4">
       <c r="A175" s="2" t="s">
-        <v>186</v>
+        <v>168</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>187</v>
+        <v>162</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>203</v>
+        <v>183</v>
       </c>
       <c r="D175" s="1"/>
     </row>
     <row r="176" spans="1:4">
       <c r="A176" s="2" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>187</v>
+        <v>162</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>203</v>
+        <v>183</v>
       </c>
       <c r="D176" s="1"/>
     </row>
     <row r="177" spans="1:4">
       <c r="A177" s="1" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>101</v>
+        <v>264</v>
       </c>
       <c r="C177" s="1" t="s">
         <v>9</v>
@@ -4090,10 +4015,10 @@
     </row>
     <row r="178" spans="1:4">
       <c r="A178" s="1" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>83</v>
+        <v>246</v>
       </c>
       <c r="C178" s="1" t="s">
         <v>9</v>
@@ -4102,10 +4027,10 @@
     </row>
     <row r="179" spans="1:4">
       <c r="A179" s="1" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>87</v>
+        <v>3</v>
       </c>
       <c r="C179" s="1" t="s">
         <v>9</v>
@@ -4114,10 +4039,10 @@
     </row>
     <row r="180" spans="1:4">
       <c r="A180" s="1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>99</v>
+        <v>264</v>
       </c>
       <c r="C180" s="1" t="s">
         <v>9</v>
@@ -4126,10 +4051,10 @@
     </row>
     <row r="181" spans="1:4">
       <c r="A181" s="1" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="C181" s="1" t="s">
         <v>9</v>
@@ -4138,46 +4063,46 @@
     </row>
     <row r="182" spans="1:4">
       <c r="A182" s="1" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="D182" s="1"/>
     </row>
     <row r="183" spans="1:4">
       <c r="A183" s="1" t="s">
-        <v>281</v>
+        <v>255</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>291</v>
+        <v>332</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>294</v>
+        <v>265</v>
       </c>
       <c r="D183" s="1"/>
     </row>
     <row r="184" spans="1:4">
       <c r="A184" s="1" t="s">
-        <v>279</v>
+        <v>253</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>290</v>
+        <v>263</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>294</v>
+        <v>265</v>
       </c>
       <c r="D184" s="1"/>
     </row>
     <row r="185" spans="1:4">
       <c r="A185" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="C185" s="1" t="s">
         <v>12</v>
@@ -4186,10 +4111,10 @@
     </row>
     <row r="186" spans="1:4">
       <c r="A186" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="C186" s="1" t="s">
         <v>12</v>
@@ -4198,10 +4123,10 @@
     </row>
     <row r="187" spans="1:4">
       <c r="A187" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="C187" s="1" t="s">
         <v>12</v>
@@ -4210,10 +4135,10 @@
     </row>
     <row r="188" spans="1:4">
       <c r="A188" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="C188" s="1" t="s">
         <v>12</v>
@@ -4222,10 +4147,10 @@
     </row>
     <row r="189" spans="1:4">
       <c r="A189" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="C189" s="1" t="s">
         <v>12</v>
@@ -4234,10 +4159,10 @@
     </row>
     <row r="190" spans="1:4">
       <c r="A190" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>54</v>
+        <v>264</v>
       </c>
       <c r="C190" s="1" t="s">
         <v>12</v>
@@ -4246,31 +4171,31 @@
     </row>
     <row r="191" spans="1:4">
       <c r="A191" s="1" t="s">
-        <v>276</v>
+        <v>250</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>289</v>
+        <v>330</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>294</v>
+        <v>265</v>
       </c>
       <c r="D191" s="1"/>
     </row>
     <row r="192" spans="1:4">
       <c r="A192" s="1" t="s">
-        <v>251</v>
+        <v>225</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>252</v>
+        <v>226</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>253</v>
+        <v>227</v>
       </c>
       <c r="D192" s="1"/>
     </row>
     <row r="193" spans="1:4">
       <c r="A193" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B193" s="4" t="s">
         <v>6</v>
@@ -4282,22 +4207,22 @@
     </row>
     <row r="194" spans="1:4">
       <c r="A194" s="4" t="s">
-        <v>308</v>
+        <v>279</v>
       </c>
       <c r="B194" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>320</v>
+        <v>291</v>
       </c>
       <c r="D194" s="1"/>
     </row>
     <row r="195" spans="1:4">
       <c r="A195" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>53</v>
+        <v>3</v>
       </c>
       <c r="C195" s="1" t="s">
         <v>12</v>
@@ -4306,10 +4231,10 @@
     </row>
     <row r="196" spans="1:4">
       <c r="A196" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C196" s="1" t="s">
         <v>12</v>
@@ -4318,43 +4243,43 @@
     </row>
     <row r="197" spans="1:4">
       <c r="A197" s="1" t="s">
-        <v>241</v>
+        <v>216</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>242</v>
+        <v>217</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>253</v>
+        <v>227</v>
       </c>
       <c r="D197" s="1"/>
     </row>
     <row r="198" spans="1:4">
       <c r="A198" s="1" t="s">
-        <v>243</v>
+        <v>218</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>354</v>
+        <v>323</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>253</v>
+        <v>227</v>
       </c>
       <c r="D198" s="1"/>
     </row>
     <row r="199" spans="1:4">
       <c r="A199" s="1" t="s">
-        <v>238</v>
+        <v>213</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>353</v>
+        <v>322</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>253</v>
+        <v>227</v>
       </c>
       <c r="D199" s="1"/>
     </row>
     <row r="200" spans="1:4">
       <c r="A200" s="1" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="B200" s="1" t="s">
         <v>3</v>
@@ -4366,7 +4291,7 @@
     </row>
     <row r="201" spans="1:4">
       <c r="A201" s="1" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="B201" s="1" t="s">
         <v>3</v>
@@ -4378,10 +4303,10 @@
     </row>
     <row r="202" spans="1:4">
       <c r="A202" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>293</v>
+        <v>264</v>
       </c>
       <c r="C202" s="1" t="s">
         <v>9</v>
@@ -4390,10 +4315,10 @@
     </row>
     <row r="203" spans="1:4">
       <c r="A203" s="1" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>352</v>
+        <v>321</v>
       </c>
       <c r="C203" s="1" t="s">
         <v>9</v>
@@ -4402,67 +4327,67 @@
     </row>
     <row r="204" spans="1:4">
       <c r="A204" s="2" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>203</v>
+        <v>183</v>
       </c>
       <c r="D204" s="1"/>
     </row>
     <row r="205" spans="1:4">
       <c r="A205" s="1" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="D205" s="1"/>
     </row>
     <row r="206" spans="1:4">
       <c r="A206" s="2" t="s">
-        <v>327</v>
+        <v>298</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>328</v>
+        <v>299</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>342</v>
+        <v>311</v>
       </c>
       <c r="D206" s="1"/>
     </row>
     <row r="207" spans="1:4">
       <c r="A207" s="1" t="s">
-        <v>278</v>
+        <v>252</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>351</v>
+        <v>320</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>294</v>
+        <v>265</v>
       </c>
       <c r="D207" s="1"/>
     </row>
     <row r="208" spans="1:4">
       <c r="A208" s="1" t="s">
-        <v>284</v>
+        <v>258</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>351</v>
+        <v>320</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>294</v>
+        <v>265</v>
       </c>
       <c r="D208" s="1"/>
     </row>
     <row r="209" spans="1:4">
       <c r="A209" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B209" s="1" t="s">
         <v>3</v>
@@ -4474,7 +4399,7 @@
     </row>
     <row r="210" spans="1:4">
       <c r="A210" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B210" s="1" t="s">
         <v>3</v>
@@ -4486,10 +4411,10 @@
     </row>
     <row r="211" spans="1:4">
       <c r="A211" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="C211" s="1" t="s">
         <v>12</v>
